--- a/data/coded_segments/zm_3_2.xlsx
+++ b/data/coded_segments/zm_3_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmamendelsohn/r_projects/amr-db/data/coded_segments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC1873ED-0B71-C942-BAD6-84259801E124}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A63B83E-D588-494B-82C9-ADF18BBB1C82}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6312" uniqueCount="1470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6322" uniqueCount="1473">
   <si>
     <t>Color</t>
   </si>
@@ -4576,6 +4576,15 @@
   </si>
   <si>
     <t>11/1/18 15:29:00</t>
+  </si>
+  <si>
+    <t>1: 625</t>
+  </si>
+  <si>
+    <t>1: 645</t>
+  </si>
+  <si>
+    <t>11/8/18 14:37:00</t>
   </si>
 </sst>
 </file>
@@ -5090,7 +5099,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M631"/>
+  <dimension ref="A1:M632"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30975,6 +30984,47 @@
         <v>1469</v>
       </c>
     </row>
+    <row r="632" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A632" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B632" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C632" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D632" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="E632" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F632" s="1" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G632" s="1" t="s">
+        <v>1471</v>
+      </c>
+      <c r="H632" s="3">
+        <v>0</v>
+      </c>
+      <c r="I632" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="J632" s="3">
+        <v>21</v>
+      </c>
+      <c r="K632" s="4">
+        <v>8.6066000000000004E-2</v>
+      </c>
+      <c r="L632" s="1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="M632" s="1" t="s">
+        <v>1472</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/data/coded_segments/zm_3_2.xlsx
+++ b/data/coded_segments/zm_3_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmamendelsohn/r_projects/amr-db/data/coded_segments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A63B83E-D588-494B-82C9-ADF18BBB1C82}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9F7AAA7-694F-D146-A613-1A57AD919380}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6322" uniqueCount="1473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6292" uniqueCount="1475">
   <si>
     <t>Color</t>
   </si>
@@ -3807,31 +3807,70 @@
     <t>3: 2750</t>
   </si>
   <si>
+    <t>3: 2754</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 256 </t>
+  </si>
+  <si>
+    <t>chen</t>
+  </si>
+  <si>
+    <t>1/30/19 16:52:25</t>
+  </si>
+  <si>
+    <t>3: 2759</t>
+  </si>
+  <si>
+    <t>3: 2762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">256 </t>
+  </si>
+  <si>
+    <t>1/30/19 16:52:59</t>
+  </si>
+  <si>
+    <t>3: 2766</t>
+  </si>
+  <si>
+    <t>3: 2770</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;512 </t>
+  </si>
+  <si>
+    <t>6/4/18 09:35:00</t>
+  </si>
+  <si>
+    <t>3: 2773</t>
+  </si>
+  <si>
+    <t>3: 2774</t>
+  </si>
+  <si>
+    <t>1/30/19 16:53:32</t>
+  </si>
+  <si>
+    <t>3: 2610</t>
+  </si>
+  <si>
+    <t>3: 2621</t>
+  </si>
+  <si>
+    <t>MICs (mg ⁄ L</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 4096 </t>
   </si>
   <si>
-    <t>6/4/18 09:35:00</t>
-  </si>
-  <si>
-    <t>3: 2754</t>
+    <t>3: 2755</t>
   </si>
   <si>
     <t>3: 2758</t>
   </si>
   <si>
-    <t xml:space="preserve"> 512 </t>
-  </si>
-  <si>
-    <t>3: 2759</t>
-  </si>
-  <si>
-    <t>3: 2761</t>
-  </si>
-  <si>
-    <t>256</t>
-  </si>
-  <si>
-    <t>3: 2762</t>
+    <t xml:space="preserve">512 </t>
   </si>
   <si>
     <t>3: 2765</t>
@@ -3840,46 +3879,7 @@
     <t xml:space="preserve"> 64 </t>
   </si>
   <si>
-    <t>3: 2766</t>
-  </si>
-  <si>
-    <t>3: 2770</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;512 </t>
-  </si>
-  <si>
-    <t>3: 2773</t>
-  </si>
-  <si>
-    <t>3: 2775</t>
-  </si>
-  <si>
-    <t>3: 2610</t>
-  </si>
-  <si>
-    <t>3: 2621</t>
-  </si>
-  <si>
-    <t>MICs (mg ⁄ L</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 256 </t>
-  </si>
-  <si>
-    <t>3: 2755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">512 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">256 </t>
-  </si>
-  <si>
     <t>6/4/18 09:36:00</t>
-  </si>
-  <si>
-    <t>3: 2774</t>
   </si>
   <si>
     <t>3: 2478</t>
@@ -4342,6 +4342,9 @@
     <t>1: 4349</t>
   </si>
   <si>
+    <t>256</t>
+  </si>
+  <si>
     <t>1: 4356</t>
   </si>
   <si>
@@ -4585,6 +4588,9 @@
   </si>
   <si>
     <t>11/8/18 14:37:00</t>
+  </si>
+  <si>
+    <t>1/30/19 16:52:46</t>
   </si>
 </sst>
 </file>
@@ -5099,7 +5105,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M632"/>
+  <dimension ref="A1:M629"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -22839,7 +22845,7 @@
         <v>1157</v>
       </c>
       <c r="E433" s="1" t="s">
-        <v>401</v>
+        <v>68</v>
       </c>
       <c r="F433" s="1" t="s">
         <v>1158</v>
@@ -22883,22 +22889,22 @@
         <v>68</v>
       </c>
       <c r="F434" s="1" t="s">
-        <v>1158</v>
+        <v>1162</v>
       </c>
       <c r="G434" s="1" t="s">
-        <v>1159</v>
+        <v>1163</v>
       </c>
       <c r="H434" s="3">
         <v>0</v>
       </c>
       <c r="I434" s="2" t="s">
-        <v>1160</v>
+        <v>1164</v>
       </c>
       <c r="J434" s="3">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="K434" s="4">
-        <v>0.50967799999999996</v>
+        <v>0.60372599999999998</v>
       </c>
       <c r="L434" s="1" t="s">
         <v>21</v>
@@ -22921,7 +22927,7 @@
         <v>1157</v>
       </c>
       <c r="E435" s="1" t="s">
-        <v>68</v>
+        <v>401</v>
       </c>
       <c r="F435" s="1" t="s">
         <v>1162</v>
@@ -22945,10 +22951,10 @@
         <v>21</v>
       </c>
       <c r="M435" s="1" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="436" spans="1:13" ht="60" x14ac:dyDescent="0.2">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="436" spans="1:13" ht="75" x14ac:dyDescent="0.2">
       <c r="A436" s="6" t="s">
         <v>13</v>
       </c>
@@ -22962,25 +22968,25 @@
         <v>1157</v>
       </c>
       <c r="E436" s="1" t="s">
-        <v>401</v>
+        <v>217</v>
       </c>
       <c r="F436" s="1" t="s">
-        <v>1162</v>
+        <v>1166</v>
       </c>
       <c r="G436" s="1" t="s">
-        <v>1163</v>
+        <v>1167</v>
       </c>
       <c r="H436" s="3">
         <v>0</v>
       </c>
       <c r="I436" s="2" t="s">
-        <v>1164</v>
+        <v>1168</v>
       </c>
       <c r="J436" s="3">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="K436" s="4">
-        <v>0.60372599999999998</v>
+        <v>0.53698199999999996</v>
       </c>
       <c r="L436" s="1" t="s">
         <v>21</v>
@@ -23003,7 +23009,7 @@
         <v>1157</v>
       </c>
       <c r="E437" s="1" t="s">
-        <v>217</v>
+        <v>69</v>
       </c>
       <c r="F437" s="1" t="s">
         <v>1166</v>
@@ -23030,7 +23036,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="438" spans="1:13" ht="75" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A438" s="6" t="s">
         <v>13</v>
       </c>
@@ -23044,25 +23050,25 @@
         <v>1157</v>
       </c>
       <c r="E438" s="1" t="s">
-        <v>401</v>
+        <v>69</v>
       </c>
       <c r="F438" s="1" t="s">
-        <v>1166</v>
+        <v>1169</v>
       </c>
       <c r="G438" s="1" t="s">
-        <v>1167</v>
+        <v>1170</v>
       </c>
       <c r="H438" s="3">
         <v>0</v>
       </c>
       <c r="I438" s="2" t="s">
-        <v>1168</v>
+        <v>1171</v>
       </c>
       <c r="J438" s="3">
-        <v>177</v>
+        <v>86</v>
       </c>
       <c r="K438" s="4">
-        <v>0.53698199999999996</v>
+        <v>0.26090600000000003</v>
       </c>
       <c r="L438" s="1" t="s">
         <v>21</v>
@@ -23071,7 +23077,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="439" spans="1:13" ht="75" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A439" s="6" t="s">
         <v>13</v>
       </c>
@@ -23085,25 +23091,25 @@
         <v>1157</v>
       </c>
       <c r="E439" s="1" t="s">
-        <v>69</v>
+        <v>401</v>
       </c>
       <c r="F439" s="1" t="s">
-        <v>1166</v>
+        <v>1169</v>
       </c>
       <c r="G439" s="1" t="s">
-        <v>1167</v>
+        <v>1170</v>
       </c>
       <c r="H439" s="3">
         <v>0</v>
       </c>
       <c r="I439" s="2" t="s">
-        <v>1168</v>
+        <v>1171</v>
       </c>
       <c r="J439" s="3">
-        <v>177</v>
+        <v>86</v>
       </c>
       <c r="K439" s="4">
-        <v>0.53698199999999996</v>
+        <v>0.26090600000000003</v>
       </c>
       <c r="L439" s="1" t="s">
         <v>21</v>
@@ -23112,7 +23118,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="440" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A440" s="6" t="s">
         <v>13</v>
       </c>
@@ -23126,25 +23132,25 @@
         <v>1157</v>
       </c>
       <c r="E440" s="1" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="F440" s="1" t="s">
-        <v>1169</v>
+        <v>1172</v>
       </c>
       <c r="G440" s="1" t="s">
-        <v>1170</v>
+        <v>607</v>
       </c>
       <c r="H440" s="3">
         <v>0</v>
       </c>
       <c r="I440" s="2" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="J440" s="3">
-        <v>86</v>
+        <v>174</v>
       </c>
       <c r="K440" s="4">
-        <v>0.26090600000000003</v>
+        <v>0.52788100000000004</v>
       </c>
       <c r="L440" s="1" t="s">
         <v>21</v>
@@ -23153,7 +23159,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="441" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A441" s="6" t="s">
         <v>13</v>
       </c>
@@ -23167,34 +23173,34 @@
         <v>1157</v>
       </c>
       <c r="E441" s="1" t="s">
-        <v>401</v>
+        <v>29</v>
       </c>
       <c r="F441" s="1" t="s">
-        <v>1169</v>
+        <v>1174</v>
       </c>
       <c r="G441" s="1" t="s">
-        <v>1170</v>
+        <v>1175</v>
       </c>
       <c r="H441" s="3">
         <v>0</v>
       </c>
       <c r="I441" s="2" t="s">
-        <v>1171</v>
+        <v>1176</v>
       </c>
       <c r="J441" s="3">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="K441" s="4">
-        <v>0.26090600000000003</v>
+        <v>1.2135E-2</v>
       </c>
       <c r="L441" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M441" s="1" t="s">
-        <v>1165</v>
-      </c>
-    </row>
-    <row r="442" spans="1:13" ht="60" x14ac:dyDescent="0.2">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="442" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A442" s="6" t="s">
         <v>13</v>
       </c>
@@ -23208,31 +23214,31 @@
         <v>1157</v>
       </c>
       <c r="E442" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F442" s="1" t="s">
-        <v>1172</v>
+        <v>1178</v>
       </c>
       <c r="G442" s="1" t="s">
-        <v>607</v>
+        <v>1179</v>
       </c>
       <c r="H442" s="3">
         <v>0</v>
       </c>
       <c r="I442" s="2" t="s">
-        <v>1173</v>
+        <v>1180</v>
       </c>
       <c r="J442" s="3">
-        <v>174</v>
+        <v>2</v>
       </c>
       <c r="K442" s="4">
-        <v>0.52788100000000004</v>
+        <v>6.0679999999999996E-3</v>
       </c>
       <c r="L442" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M442" s="1" t="s">
-        <v>1165</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="443" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -23249,25 +23255,25 @@
         <v>1157</v>
       </c>
       <c r="E443" s="1" t="s">
-        <v>29</v>
+        <v>793</v>
       </c>
       <c r="F443" s="1" t="s">
-        <v>1174</v>
+        <v>1181</v>
       </c>
       <c r="G443" s="1" t="s">
-        <v>1175</v>
+        <v>1182</v>
       </c>
       <c r="H443" s="3">
         <v>0</v>
       </c>
       <c r="I443" s="2" t="s">
-        <v>1176</v>
+        <v>1183</v>
       </c>
       <c r="J443" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K443" s="4">
-        <v>1.2135E-2</v>
+        <v>6.0679999999999996E-3</v>
       </c>
       <c r="L443" s="1" t="s">
         <v>21</v>
@@ -23290,25 +23296,25 @@
         <v>1157</v>
       </c>
       <c r="E444" s="1" t="s">
-        <v>33</v>
+        <v>798</v>
       </c>
       <c r="F444" s="1" t="s">
-        <v>1178</v>
+        <v>1184</v>
       </c>
       <c r="G444" s="1" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="H444" s="3">
         <v>0</v>
       </c>
       <c r="I444" s="2" t="s">
-        <v>1180</v>
+        <v>1185</v>
       </c>
       <c r="J444" s="3">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K444" s="4">
-        <v>6.0679999999999996E-3</v>
+        <v>4.2472999999999997E-2</v>
       </c>
       <c r="L444" s="1" t="s">
         <v>21</v>
@@ -23331,25 +23337,25 @@
         <v>1157</v>
       </c>
       <c r="E445" s="1" t="s">
-        <v>793</v>
+        <v>37</v>
       </c>
       <c r="F445" s="1" t="s">
-        <v>1181</v>
+        <v>1186</v>
       </c>
       <c r="G445" s="1" t="s">
-        <v>1182</v>
+        <v>1187</v>
       </c>
       <c r="H445" s="3">
         <v>0</v>
       </c>
       <c r="I445" s="2" t="s">
-        <v>1183</v>
+        <v>1188</v>
       </c>
       <c r="J445" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="K445" s="4">
-        <v>6.0679999999999996E-3</v>
+        <v>3.3371999999999999E-2</v>
       </c>
       <c r="L445" s="1" t="s">
         <v>21</v>
@@ -23372,25 +23378,25 @@
         <v>1157</v>
       </c>
       <c r="E446" s="1" t="s">
-        <v>798</v>
+        <v>37</v>
       </c>
       <c r="F446" s="1" t="s">
-        <v>1184</v>
+        <v>1189</v>
       </c>
       <c r="G446" s="1" t="s">
-        <v>1175</v>
+        <v>1190</v>
       </c>
       <c r="H446" s="3">
         <v>0</v>
       </c>
       <c r="I446" s="2" t="s">
-        <v>1185</v>
+        <v>1191</v>
       </c>
       <c r="J446" s="3">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="K446" s="4">
-        <v>4.2472999999999997E-2</v>
+        <v>8.1913E-2</v>
       </c>
       <c r="L446" s="1" t="s">
         <v>21</v>
@@ -23416,22 +23422,22 @@
         <v>37</v>
       </c>
       <c r="F447" s="1" t="s">
-        <v>1186</v>
+        <v>1192</v>
       </c>
       <c r="G447" s="1" t="s">
-        <v>1187</v>
+        <v>1193</v>
       </c>
       <c r="H447" s="3">
         <v>0</v>
       </c>
       <c r="I447" s="2" t="s">
-        <v>1188</v>
+        <v>1194</v>
       </c>
       <c r="J447" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K447" s="4">
-        <v>3.3371999999999999E-2</v>
+        <v>3.6406000000000001E-2</v>
       </c>
       <c r="L447" s="1" t="s">
         <v>21</v>
@@ -23457,22 +23463,22 @@
         <v>37</v>
       </c>
       <c r="F448" s="1" t="s">
-        <v>1189</v>
+        <v>1195</v>
       </c>
       <c r="G448" s="1" t="s">
-        <v>1190</v>
+        <v>1196</v>
       </c>
       <c r="H448" s="3">
         <v>0</v>
       </c>
       <c r="I448" s="2" t="s">
-        <v>1191</v>
+        <v>1197</v>
       </c>
       <c r="J448" s="3">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K448" s="4">
-        <v>8.1913E-2</v>
+        <v>6.9777000000000006E-2</v>
       </c>
       <c r="L448" s="1" t="s">
         <v>21</v>
@@ -23498,28 +23504,28 @@
         <v>37</v>
       </c>
       <c r="F449" s="1" t="s">
-        <v>1192</v>
+        <v>1198</v>
       </c>
       <c r="G449" s="1" t="s">
-        <v>1193</v>
+        <v>1199</v>
       </c>
       <c r="H449" s="3">
         <v>0</v>
       </c>
       <c r="I449" s="2" t="s">
-        <v>1194</v>
+        <v>1200</v>
       </c>
       <c r="J449" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K449" s="4">
-        <v>3.6406000000000001E-2</v>
+        <v>3.3371999999999999E-2</v>
       </c>
       <c r="L449" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M449" s="1" t="s">
-        <v>1177</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="450" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -23539,28 +23545,28 @@
         <v>37</v>
       </c>
       <c r="F450" s="1" t="s">
-        <v>1195</v>
+        <v>1202</v>
       </c>
       <c r="G450" s="1" t="s">
-        <v>1196</v>
+        <v>1203</v>
       </c>
       <c r="H450" s="3">
         <v>0</v>
       </c>
       <c r="I450" s="2" t="s">
-        <v>1197</v>
+        <v>1204</v>
       </c>
       <c r="J450" s="3">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="K450" s="4">
-        <v>6.9777000000000006E-2</v>
+        <v>2.427E-2</v>
       </c>
       <c r="L450" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M450" s="1" t="s">
-        <v>1177</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="451" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -23580,22 +23586,22 @@
         <v>37</v>
       </c>
       <c r="F451" s="1" t="s">
-        <v>1198</v>
+        <v>1205</v>
       </c>
       <c r="G451" s="1" t="s">
-        <v>1199</v>
+        <v>1206</v>
       </c>
       <c r="H451" s="3">
         <v>0</v>
       </c>
       <c r="I451" s="2" t="s">
-        <v>1200</v>
+        <v>1207</v>
       </c>
       <c r="J451" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K451" s="4">
-        <v>3.3371999999999999E-2</v>
+        <v>2.7303999999999998E-2</v>
       </c>
       <c r="L451" s="1" t="s">
         <v>21</v>
@@ -23618,25 +23624,25 @@
         <v>1157</v>
       </c>
       <c r="E452" s="1" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="F452" s="1" t="s">
-        <v>1202</v>
+        <v>1208</v>
       </c>
       <c r="G452" s="1" t="s">
-        <v>1203</v>
+        <v>1187</v>
       </c>
       <c r="H452" s="3">
         <v>0</v>
       </c>
       <c r="I452" s="2" t="s">
-        <v>1204</v>
+        <v>1209</v>
       </c>
       <c r="J452" s="3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K452" s="4">
-        <v>2.427E-2</v>
+        <v>3.3371999999999999E-2</v>
       </c>
       <c r="L452" s="1" t="s">
         <v>21</v>
@@ -23659,25 +23665,25 @@
         <v>1157</v>
       </c>
       <c r="E453" s="1" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="F453" s="1" t="s">
-        <v>1205</v>
+        <v>1210</v>
       </c>
       <c r="G453" s="1" t="s">
-        <v>1206</v>
+        <v>1190</v>
       </c>
       <c r="H453" s="3">
         <v>0</v>
       </c>
       <c r="I453" s="2" t="s">
-        <v>1207</v>
+        <v>1211</v>
       </c>
       <c r="J453" s="3">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="K453" s="4">
-        <v>2.7303999999999998E-2</v>
+        <v>8.1913E-2</v>
       </c>
       <c r="L453" s="1" t="s">
         <v>21</v>
@@ -23700,25 +23706,25 @@
         <v>1157</v>
       </c>
       <c r="E454" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F454" s="1" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
       <c r="G454" s="1" t="s">
-        <v>1187</v>
+        <v>1193</v>
       </c>
       <c r="H454" s="3">
         <v>0</v>
       </c>
       <c r="I454" s="2" t="s">
-        <v>1209</v>
+        <v>1194</v>
       </c>
       <c r="J454" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K454" s="4">
-        <v>3.3371999999999999E-2</v>
+        <v>3.6406000000000001E-2</v>
       </c>
       <c r="L454" s="1" t="s">
         <v>21</v>
@@ -23741,25 +23747,25 @@
         <v>1157</v>
       </c>
       <c r="E455" s="1" t="s">
-        <v>73</v>
+        <v>240</v>
       </c>
       <c r="F455" s="1" t="s">
-        <v>1210</v>
+        <v>1195</v>
       </c>
       <c r="G455" s="1" t="s">
-        <v>1190</v>
+        <v>1196</v>
       </c>
       <c r="H455" s="3">
         <v>0</v>
       </c>
       <c r="I455" s="2" t="s">
-        <v>1211</v>
+        <v>1197</v>
       </c>
       <c r="J455" s="3">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K455" s="4">
-        <v>8.1913E-2</v>
+        <v>6.9777000000000006E-2</v>
       </c>
       <c r="L455" s="1" t="s">
         <v>21</v>
@@ -23782,25 +23788,25 @@
         <v>1157</v>
       </c>
       <c r="E456" s="1" t="s">
-        <v>74</v>
+        <v>243</v>
       </c>
       <c r="F456" s="1" t="s">
-        <v>1192</v>
+        <v>1198</v>
       </c>
       <c r="G456" s="1" t="s">
-        <v>1193</v>
+        <v>1199</v>
       </c>
       <c r="H456" s="3">
         <v>0</v>
       </c>
       <c r="I456" s="2" t="s">
-        <v>1194</v>
+        <v>1200</v>
       </c>
       <c r="J456" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K456" s="4">
-        <v>3.6406000000000001E-2</v>
+        <v>3.3371999999999999E-2</v>
       </c>
       <c r="L456" s="1" t="s">
         <v>21</v>
@@ -23823,25 +23829,25 @@
         <v>1157</v>
       </c>
       <c r="E457" s="1" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F457" s="1" t="s">
-        <v>1195</v>
+        <v>1202</v>
       </c>
       <c r="G457" s="1" t="s">
-        <v>1196</v>
+        <v>1203</v>
       </c>
       <c r="H457" s="3">
         <v>0</v>
       </c>
       <c r="I457" s="2" t="s">
-        <v>1197</v>
+        <v>1204</v>
       </c>
       <c r="J457" s="3">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="K457" s="4">
-        <v>6.9777000000000006E-2</v>
+        <v>2.427E-2</v>
       </c>
       <c r="L457" s="1" t="s">
         <v>21</v>
@@ -23864,31 +23870,31 @@
         <v>1157</v>
       </c>
       <c r="E458" s="1" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="F458" s="1" t="s">
-        <v>1198</v>
+        <v>1205</v>
       </c>
       <c r="G458" s="1" t="s">
-        <v>1199</v>
+        <v>1206</v>
       </c>
       <c r="H458" s="3">
         <v>0</v>
       </c>
       <c r="I458" s="2" t="s">
-        <v>1200</v>
+        <v>1207</v>
       </c>
       <c r="J458" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K458" s="4">
-        <v>3.3371999999999999E-2</v>
+        <v>2.7303999999999998E-2</v>
       </c>
       <c r="L458" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M458" s="1" t="s">
-        <v>1201</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="459" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -23905,31 +23911,31 @@
         <v>1157</v>
       </c>
       <c r="E459" s="1" t="s">
-        <v>246</v>
+        <v>54</v>
       </c>
       <c r="F459" s="1" t="s">
-        <v>1202</v>
+        <v>1213</v>
       </c>
       <c r="G459" s="1" t="s">
-        <v>1203</v>
+        <v>1214</v>
       </c>
       <c r="H459" s="3">
         <v>0</v>
       </c>
       <c r="I459" s="2" t="s">
-        <v>1204</v>
+        <v>1215</v>
       </c>
       <c r="J459" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K459" s="4">
-        <v>2.427E-2</v>
+        <v>9.101389478793763E-3</v>
       </c>
       <c r="L459" s="1" t="s">
-        <v>21</v>
+        <v>1216</v>
       </c>
       <c r="M459" s="1" t="s">
-        <v>1201</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="460" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -23946,31 +23952,31 @@
         <v>1157</v>
       </c>
       <c r="E460" s="1" t="s">
-        <v>250</v>
+        <v>54</v>
       </c>
       <c r="F460" s="1" t="s">
-        <v>1205</v>
+        <v>1218</v>
       </c>
       <c r="G460" s="1" t="s">
-        <v>1206</v>
+        <v>1219</v>
       </c>
       <c r="H460" s="3">
         <v>0</v>
       </c>
       <c r="I460" s="2" t="s">
-        <v>1207</v>
+        <v>1220</v>
       </c>
       <c r="J460" s="3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K460" s="4">
-        <v>2.7303999999999998E-2</v>
+        <v>9.101389478793763E-3</v>
       </c>
       <c r="L460" s="1" t="s">
-        <v>21</v>
+        <v>1216</v>
       </c>
       <c r="M460" s="1" t="s">
-        <v>1212</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="461" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -23990,16 +23996,16 @@
         <v>54</v>
       </c>
       <c r="F461" s="1" t="s">
-        <v>1175</v>
+        <v>1222</v>
       </c>
       <c r="G461" s="1" t="s">
-        <v>1213</v>
+        <v>1223</v>
       </c>
       <c r="H461" s="3">
         <v>0</v>
       </c>
       <c r="I461" s="2" t="s">
-        <v>1214</v>
+        <v>1224</v>
       </c>
       <c r="J461" s="3">
         <v>4</v>
@@ -24011,7 +24017,7 @@
         <v>21</v>
       </c>
       <c r="M461" s="1" t="s">
-        <v>1215</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="462" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -24031,28 +24037,28 @@
         <v>54</v>
       </c>
       <c r="F462" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="G462" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="H462" s="3">
+        <v>0</v>
+      </c>
+      <c r="I462" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="J462" s="3">
+        <v>2</v>
+      </c>
+      <c r="K462" s="4">
+        <v>6.0675929858625089E-3</v>
+      </c>
+      <c r="L462" s="1" t="s">
         <v>1216</v>
       </c>
-      <c r="G462" s="1" t="s">
-        <v>1217</v>
-      </c>
-      <c r="H462" s="3">
-        <v>0</v>
-      </c>
-      <c r="I462" s="2" t="s">
-        <v>1218</v>
-      </c>
-      <c r="J462" s="3">
-        <v>3</v>
-      </c>
-      <c r="K462" s="4">
-        <v>9.1009999999999997E-3</v>
-      </c>
-      <c r="L462" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="M462" s="1" t="s">
-        <v>1215</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="463" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -24060,7 +24066,7 @@
         <v>13</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>15</v>
+        <v>341</v>
       </c>
       <c r="C463" s="1" t="s">
         <v>15</v>
@@ -24069,31 +24075,31 @@
         <v>1157</v>
       </c>
       <c r="E463" s="1" t="s">
-        <v>54</v>
+        <v>217</v>
       </c>
       <c r="F463" s="1" t="s">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="G463" s="1" t="s">
-        <v>1220</v>
+        <v>1230</v>
       </c>
       <c r="H463" s="3">
         <v>0</v>
       </c>
       <c r="I463" s="2" t="s">
-        <v>1221</v>
+        <v>1231</v>
       </c>
       <c r="J463" s="3">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="K463" s="4">
-        <v>9.1009999999999997E-3</v>
+        <v>3.6406000000000001E-2</v>
       </c>
       <c r="L463" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M463" s="1" t="s">
-        <v>1215</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="464" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -24110,31 +24116,31 @@
         <v>1157</v>
       </c>
       <c r="E464" s="1" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="F464" s="1" t="s">
-        <v>1222</v>
+        <v>1175</v>
       </c>
       <c r="G464" s="1" t="s">
-        <v>1223</v>
+        <v>1213</v>
       </c>
       <c r="H464" s="3">
         <v>0</v>
       </c>
       <c r="I464" s="2" t="s">
-        <v>1224</v>
+        <v>1232</v>
       </c>
       <c r="J464" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K464" s="4">
-        <v>6.0679999999999996E-3</v>
+        <v>1.2135E-2</v>
       </c>
       <c r="L464" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M464" s="1" t="s">
-        <v>1215</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="465" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -24151,31 +24157,31 @@
         <v>1157</v>
       </c>
       <c r="E465" s="1" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="F465" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="G465" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="H465" s="3">
+        <v>0</v>
+      </c>
+      <c r="I465" s="2" t="s">
+        <v>1215</v>
+      </c>
+      <c r="J465" s="3">
+        <v>3</v>
+      </c>
+      <c r="K465" s="4">
+        <v>9.1009999999999997E-3</v>
+      </c>
+      <c r="L465" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M465" s="1" t="s">
         <v>1225</v>
-      </c>
-      <c r="G465" s="1" t="s">
-        <v>1226</v>
-      </c>
-      <c r="H465" s="3">
-        <v>0</v>
-      </c>
-      <c r="I465" s="2" t="s">
-        <v>1227</v>
-      </c>
-      <c r="J465" s="3">
-        <v>4</v>
-      </c>
-      <c r="K465" s="4">
-        <v>1.2135E-2</v>
-      </c>
-      <c r="L465" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M465" s="1" t="s">
-        <v>1215</v>
       </c>
     </row>
     <row r="466" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -24192,31 +24198,31 @@
         <v>1157</v>
       </c>
       <c r="E466" s="1" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="F466" s="1" t="s">
-        <v>1228</v>
+        <v>1233</v>
       </c>
       <c r="G466" s="1" t="s">
-        <v>1229</v>
+        <v>1234</v>
       </c>
       <c r="H466" s="3">
         <v>0</v>
       </c>
       <c r="I466" s="2" t="s">
-        <v>356</v>
+        <v>1235</v>
       </c>
       <c r="J466" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K466" s="4">
-        <v>6.0679999999999996E-3</v>
+        <v>9.1009999999999997E-3</v>
       </c>
       <c r="L466" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M466" s="1" t="s">
-        <v>1215</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="467" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -24224,7 +24230,7 @@
         <v>13</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>341</v>
+        <v>15</v>
       </c>
       <c r="C467" s="1" t="s">
         <v>15</v>
@@ -24233,31 +24239,31 @@
         <v>1157</v>
       </c>
       <c r="E467" s="1" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="F467" s="1" t="s">
-        <v>1230</v>
+        <v>1218</v>
       </c>
       <c r="G467" s="1" t="s">
-        <v>1231</v>
+        <v>1219</v>
       </c>
       <c r="H467" s="3">
         <v>0</v>
       </c>
       <c r="I467" s="2" t="s">
-        <v>1232</v>
+        <v>1220</v>
       </c>
       <c r="J467" s="3">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K467" s="4">
-        <v>3.6406000000000001E-2</v>
+        <v>9.1009999999999997E-3</v>
       </c>
       <c r="L467" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M467" s="1" t="s">
-        <v>1215</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="468" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -24274,31 +24280,31 @@
         <v>1157</v>
       </c>
       <c r="E468" s="1" t="s">
-        <v>71</v>
+        <v>243</v>
       </c>
       <c r="F468" s="1" t="s">
-        <v>1175</v>
+        <v>1219</v>
       </c>
       <c r="G468" s="1" t="s">
-        <v>1213</v>
+        <v>1236</v>
       </c>
       <c r="H468" s="3">
         <v>0</v>
       </c>
       <c r="I468" s="2" t="s">
-        <v>1214</v>
+        <v>1237</v>
       </c>
       <c r="J468" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K468" s="4">
-        <v>1.2135E-2</v>
+        <v>6.0679999999999996E-3</v>
       </c>
       <c r="L468" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M468" s="1" t="s">
-        <v>1215</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="469" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -24315,31 +24321,31 @@
         <v>1157</v>
       </c>
       <c r="E469" s="1" t="s">
-        <v>73</v>
+        <v>246</v>
       </c>
       <c r="F469" s="1" t="s">
-        <v>1213</v>
+        <v>1222</v>
       </c>
       <c r="G469" s="1" t="s">
-        <v>1216</v>
+        <v>1223</v>
       </c>
       <c r="H469" s="3">
         <v>0</v>
       </c>
       <c r="I469" s="2" t="s">
-        <v>1233</v>
+        <v>1224</v>
       </c>
       <c r="J469" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K469" s="4">
-        <v>9.1009999999999997E-3</v>
+        <v>1.2135E-2</v>
       </c>
       <c r="L469" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M469" s="1" t="s">
-        <v>1215</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="470" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -24356,31 +24362,31 @@
         <v>1157</v>
       </c>
       <c r="E470" s="1" t="s">
-        <v>74</v>
+        <v>250</v>
       </c>
       <c r="F470" s="1" t="s">
-        <v>1234</v>
+        <v>1226</v>
       </c>
       <c r="G470" s="1" t="s">
-        <v>1217</v>
+        <v>1227</v>
       </c>
       <c r="H470" s="3">
         <v>0</v>
       </c>
       <c r="I470" s="2" t="s">
-        <v>1235</v>
+        <v>366</v>
       </c>
       <c r="J470" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K470" s="4">
-        <v>9.1009999999999997E-3</v>
+        <v>6.0679999999999996E-3</v>
       </c>
       <c r="L470" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M470" s="1" t="s">
-        <v>1215</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="471" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -24397,31 +24403,31 @@
         <v>1157</v>
       </c>
       <c r="E471" s="1" t="s">
-        <v>240</v>
+        <v>76</v>
       </c>
       <c r="F471" s="1" t="s">
-        <v>1219</v>
+        <v>1239</v>
       </c>
       <c r="G471" s="1" t="s">
-        <v>1222</v>
+        <v>1240</v>
       </c>
       <c r="H471" s="3">
         <v>0</v>
       </c>
       <c r="I471" s="2" t="s">
-        <v>1236</v>
+        <v>1241</v>
       </c>
       <c r="J471" s="3">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="K471" s="4">
-        <v>9.1009999999999997E-3</v>
+        <v>6.6743999999999998E-2</v>
       </c>
       <c r="L471" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M471" s="1" t="s">
-        <v>1215</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="472" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -24438,31 +24444,31 @@
         <v>1157</v>
       </c>
       <c r="E472" s="1" t="s">
-        <v>243</v>
+        <v>80</v>
       </c>
       <c r="F472" s="1" t="s">
-        <v>1222</v>
+        <v>1242</v>
       </c>
       <c r="G472" s="1" t="s">
-        <v>1223</v>
+        <v>1243</v>
       </c>
       <c r="H472" s="3">
         <v>0</v>
       </c>
       <c r="I472" s="2" t="s">
-        <v>1224</v>
+        <v>1244</v>
       </c>
       <c r="J472" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K472" s="4">
-        <v>6.0679999999999996E-3</v>
+        <v>1.8203E-2</v>
       </c>
       <c r="L472" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M472" s="1" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="473" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -24479,31 +24485,31 @@
         <v>1157</v>
       </c>
       <c r="E473" s="1" t="s">
-        <v>246</v>
+        <v>85</v>
       </c>
       <c r="F473" s="1" t="s">
-        <v>1225</v>
+        <v>1245</v>
       </c>
       <c r="G473" s="1" t="s">
-        <v>1226</v>
+        <v>1246</v>
       </c>
       <c r="H473" s="3">
         <v>0</v>
       </c>
       <c r="I473" s="2" t="s">
-        <v>1227</v>
+        <v>1247</v>
       </c>
       <c r="J473" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K473" s="4">
-        <v>1.2135E-2</v>
+        <v>2.1236999999999999E-2</v>
       </c>
       <c r="L473" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M473" s="1" t="s">
-        <v>1237</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="474" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -24520,34 +24526,34 @@
         <v>1157</v>
       </c>
       <c r="E474" s="1" t="s">
-        <v>250</v>
+        <v>89</v>
       </c>
       <c r="F474" s="1" t="s">
-        <v>1228</v>
+        <v>1249</v>
       </c>
       <c r="G474" s="1" t="s">
-        <v>1238</v>
+        <v>1250</v>
       </c>
       <c r="H474" s="3">
         <v>0</v>
       </c>
       <c r="I474" s="2" t="s">
-        <v>366</v>
+        <v>1251</v>
       </c>
       <c r="J474" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K474" s="4">
-        <v>6.0679999999999996E-3</v>
+        <v>1.5169E-2</v>
       </c>
       <c r="L474" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M474" s="1" t="s">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="475" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="475" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A475" s="6" t="s">
         <v>13</v>
       </c>
@@ -24561,31 +24567,31 @@
         <v>1157</v>
       </c>
       <c r="E475" s="1" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="F475" s="1" t="s">
-        <v>1239</v>
+        <v>1253</v>
       </c>
       <c r="G475" s="1" t="s">
-        <v>1240</v>
+        <v>1246</v>
       </c>
       <c r="H475" s="3">
         <v>0</v>
       </c>
       <c r="I475" s="2" t="s">
-        <v>1241</v>
+        <v>1254</v>
       </c>
       <c r="J475" s="3">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="K475" s="4">
-        <v>6.6743999999999998E-2</v>
+        <v>0.17596000000000001</v>
       </c>
       <c r="L475" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M475" s="1" t="s">
-        <v>1237</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="476" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -24599,34 +24605,34 @@
         <v>15</v>
       </c>
       <c r="D476" s="2" t="s">
-        <v>1157</v>
+        <v>1255</v>
       </c>
       <c r="E476" s="1" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="F476" s="1" t="s">
-        <v>1242</v>
+        <v>1256</v>
       </c>
       <c r="G476" s="1" t="s">
-        <v>1243</v>
+        <v>1257</v>
       </c>
       <c r="H476" s="3">
         <v>0</v>
       </c>
       <c r="I476" s="2" t="s">
-        <v>1244</v>
+        <v>1258</v>
       </c>
       <c r="J476" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K476" s="4">
-        <v>1.8203E-2</v>
+        <v>1.6590000000000001E-2</v>
       </c>
       <c r="L476" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M476" s="1" t="s">
-        <v>1237</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="477" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -24640,34 +24646,34 @@
         <v>15</v>
       </c>
       <c r="D477" s="2" t="s">
-        <v>1157</v>
+        <v>1255</v>
       </c>
       <c r="E477" s="1" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="F477" s="1" t="s">
-        <v>1245</v>
+        <v>1260</v>
       </c>
       <c r="G477" s="1" t="s">
-        <v>1246</v>
+        <v>1261</v>
       </c>
       <c r="H477" s="3">
         <v>0</v>
       </c>
       <c r="I477" s="2" t="s">
-        <v>1247</v>
+        <v>1262</v>
       </c>
       <c r="J477" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K477" s="4">
-        <v>2.1236999999999999E-2</v>
+        <v>1.6590000000000001E-2</v>
       </c>
       <c r="L477" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M477" s="1" t="s">
-        <v>1248</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="478" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -24681,37 +24687,37 @@
         <v>15</v>
       </c>
       <c r="D478" s="2" t="s">
-        <v>1157</v>
+        <v>1255</v>
       </c>
       <c r="E478" s="1" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="F478" s="1" t="s">
-        <v>1249</v>
+        <v>1263</v>
       </c>
       <c r="G478" s="1" t="s">
-        <v>1250</v>
+        <v>1264</v>
       </c>
       <c r="H478" s="3">
         <v>0</v>
       </c>
       <c r="I478" s="2" t="s">
-        <v>1251</v>
+        <v>1265</v>
       </c>
       <c r="J478" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K478" s="4">
-        <v>1.5169E-2</v>
+        <v>4.1474999999999998E-2</v>
       </c>
       <c r="L478" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M478" s="1" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="479" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="479" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A479" s="6" t="s">
         <v>13</v>
       </c>
@@ -24722,34 +24728,34 @@
         <v>15</v>
       </c>
       <c r="D479" s="2" t="s">
-        <v>1157</v>
+        <v>1255</v>
       </c>
       <c r="E479" s="1" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="F479" s="1" t="s">
-        <v>1253</v>
+        <v>1267</v>
       </c>
       <c r="G479" s="1" t="s">
-        <v>1246</v>
+        <v>1268</v>
       </c>
       <c r="H479" s="3">
         <v>0</v>
       </c>
       <c r="I479" s="2" t="s">
-        <v>1254</v>
+        <v>1269</v>
       </c>
       <c r="J479" s="3">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="K479" s="4">
-        <v>0.17596000000000001</v>
+        <v>3.7326999999999999E-2</v>
       </c>
       <c r="L479" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M479" s="1" t="s">
-        <v>1252</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="480" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -24766,31 +24772,31 @@
         <v>1255</v>
       </c>
       <c r="E480" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F480" s="1" t="s">
-        <v>1256</v>
+        <v>1270</v>
       </c>
       <c r="G480" s="1" t="s">
-        <v>1257</v>
+        <v>1271</v>
       </c>
       <c r="H480" s="3">
         <v>0</v>
       </c>
       <c r="I480" s="2" t="s">
-        <v>1258</v>
+        <v>1200</v>
       </c>
       <c r="J480" s="3">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K480" s="4">
-        <v>1.6590000000000001E-2</v>
+        <v>4.5622000000000003E-2</v>
       </c>
       <c r="L480" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M480" s="1" t="s">
-        <v>1259</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="481" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -24807,31 +24813,31 @@
         <v>1255</v>
       </c>
       <c r="E481" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F481" s="1" t="s">
-        <v>1260</v>
+        <v>1272</v>
       </c>
       <c r="G481" s="1" t="s">
-        <v>1261</v>
+        <v>1273</v>
       </c>
       <c r="H481" s="3">
         <v>0</v>
       </c>
       <c r="I481" s="2" t="s">
-        <v>1262</v>
+        <v>1274</v>
       </c>
       <c r="J481" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K481" s="4">
-        <v>1.6590000000000001E-2</v>
+        <v>4.1474999999999998E-2</v>
       </c>
       <c r="L481" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M481" s="1" t="s">
-        <v>1259</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="482" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -24851,28 +24857,28 @@
         <v>37</v>
       </c>
       <c r="F482" s="1" t="s">
-        <v>1263</v>
+        <v>1275</v>
       </c>
       <c r="G482" s="1" t="s">
-        <v>1264</v>
+        <v>1276</v>
       </c>
       <c r="H482" s="3">
         <v>0</v>
       </c>
       <c r="I482" s="2" t="s">
-        <v>1265</v>
+        <v>1277</v>
       </c>
       <c r="J482" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K482" s="4">
-        <v>4.1474999999999998E-2</v>
+        <v>3.3180000000000001E-2</v>
       </c>
       <c r="L482" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M482" s="1" t="s">
-        <v>1266</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="483" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -24892,16 +24898,16 @@
         <v>37</v>
       </c>
       <c r="F483" s="1" t="s">
-        <v>1267</v>
+        <v>1279</v>
       </c>
       <c r="G483" s="1" t="s">
-        <v>1268</v>
+        <v>1280</v>
       </c>
       <c r="H483" s="3">
         <v>0</v>
       </c>
       <c r="I483" s="2" t="s">
-        <v>1269</v>
+        <v>1281</v>
       </c>
       <c r="J483" s="3">
         <v>9</v>
@@ -24913,7 +24919,7 @@
         <v>21</v>
       </c>
       <c r="M483" s="1" t="s">
-        <v>1266</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="484" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -24933,28 +24939,28 @@
         <v>37</v>
       </c>
       <c r="F484" s="1" t="s">
-        <v>1270</v>
+        <v>1282</v>
       </c>
       <c r="G484" s="1" t="s">
-        <v>1271</v>
+        <v>1283</v>
       </c>
       <c r="H484" s="3">
         <v>0</v>
       </c>
       <c r="I484" s="2" t="s">
-        <v>1200</v>
+        <v>1284</v>
       </c>
       <c r="J484" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K484" s="4">
-        <v>4.5622000000000003E-2</v>
+        <v>3.7326999999999999E-2</v>
       </c>
       <c r="L484" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M484" s="1" t="s">
-        <v>1266</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="485" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -24974,28 +24980,28 @@
         <v>37</v>
       </c>
       <c r="F485" s="1" t="s">
-        <v>1272</v>
+        <v>1285</v>
       </c>
       <c r="G485" s="1" t="s">
-        <v>1273</v>
+        <v>1286</v>
       </c>
       <c r="H485" s="3">
         <v>0</v>
       </c>
       <c r="I485" s="2" t="s">
-        <v>1274</v>
+        <v>1287</v>
       </c>
       <c r="J485" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K485" s="4">
-        <v>4.1474999999999998E-2</v>
+        <v>3.7326999999999999E-2</v>
       </c>
       <c r="L485" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M485" s="1" t="s">
-        <v>1266</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="486" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -25015,16 +25021,16 @@
         <v>37</v>
       </c>
       <c r="F486" s="1" t="s">
-        <v>1275</v>
+        <v>1288</v>
       </c>
       <c r="G486" s="1" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
       <c r="H486" s="3">
         <v>0</v>
       </c>
       <c r="I486" s="2" t="s">
-        <v>1277</v>
+        <v>1290</v>
       </c>
       <c r="J486" s="3">
         <v>8</v>
@@ -25056,28 +25062,28 @@
         <v>37</v>
       </c>
       <c r="F487" s="1" t="s">
-        <v>1279</v>
+        <v>1291</v>
       </c>
       <c r="G487" s="1" t="s">
-        <v>1280</v>
+        <v>1292</v>
       </c>
       <c r="H487" s="3">
         <v>0</v>
       </c>
       <c r="I487" s="2" t="s">
-        <v>1281</v>
+        <v>1293</v>
       </c>
       <c r="J487" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K487" s="4">
-        <v>3.7326999999999999E-2</v>
+        <v>3.3180000000000001E-2</v>
       </c>
       <c r="L487" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M487" s="1" t="s">
-        <v>1278</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="488" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -25097,28 +25103,28 @@
         <v>37</v>
       </c>
       <c r="F488" s="1" t="s">
-        <v>1282</v>
+        <v>1295</v>
       </c>
       <c r="G488" s="1" t="s">
-        <v>1283</v>
+        <v>1296</v>
       </c>
       <c r="H488" s="3">
         <v>0</v>
       </c>
       <c r="I488" s="2" t="s">
-        <v>1284</v>
+        <v>1297</v>
       </c>
       <c r="J488" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K488" s="4">
-        <v>3.7326999999999999E-2</v>
+        <v>4.1474999999999998E-2</v>
       </c>
       <c r="L488" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M488" s="1" t="s">
-        <v>1278</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="489" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -25135,31 +25141,31 @@
         <v>1255</v>
       </c>
       <c r="E489" s="1" t="s">
-        <v>37</v>
+        <v>1298</v>
       </c>
       <c r="F489" s="1" t="s">
-        <v>1285</v>
+        <v>1299</v>
       </c>
       <c r="G489" s="1" t="s">
-        <v>1286</v>
+        <v>1300</v>
       </c>
       <c r="H489" s="3">
         <v>0</v>
       </c>
       <c r="I489" s="2" t="s">
-        <v>1287</v>
+        <v>941</v>
       </c>
       <c r="J489" s="3">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="K489" s="4">
-        <v>3.7326999999999999E-2</v>
+        <v>9.5392000000000005E-2</v>
       </c>
       <c r="L489" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M489" s="1" t="s">
-        <v>1278</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="490" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -25176,31 +25182,31 @@
         <v>1255</v>
       </c>
       <c r="E490" s="1" t="s">
-        <v>37</v>
+        <v>1302</v>
       </c>
       <c r="F490" s="1" t="s">
-        <v>1288</v>
+        <v>1303</v>
       </c>
       <c r="G490" s="1" t="s">
-        <v>1289</v>
+        <v>1304</v>
       </c>
       <c r="H490" s="3">
         <v>0</v>
       </c>
       <c r="I490" s="2" t="s">
-        <v>1290</v>
+        <v>824</v>
       </c>
       <c r="J490" s="3">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="K490" s="4">
-        <v>3.3180000000000001E-2</v>
+        <v>8.2949999999999996E-2</v>
       </c>
       <c r="L490" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M490" s="1" t="s">
-        <v>1278</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="491" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -25217,31 +25223,31 @@
         <v>1255</v>
       </c>
       <c r="E491" s="1" t="s">
-        <v>37</v>
+        <v>1306</v>
       </c>
       <c r="F491" s="1" t="s">
-        <v>1291</v>
+        <v>1307</v>
       </c>
       <c r="G491" s="1" t="s">
-        <v>1292</v>
+        <v>35</v>
       </c>
       <c r="H491" s="3">
         <v>0</v>
       </c>
       <c r="I491" s="2" t="s">
-        <v>1293</v>
+        <v>1308</v>
       </c>
       <c r="J491" s="3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="K491" s="4">
-        <v>3.3180000000000001E-2</v>
+        <v>6.6360000000000002E-2</v>
       </c>
       <c r="L491" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M491" s="1" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="492" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -25258,31 +25264,31 @@
         <v>1255</v>
       </c>
       <c r="E492" s="1" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="F492" s="1" t="s">
-        <v>1295</v>
+        <v>1307</v>
       </c>
       <c r="G492" s="1" t="s">
-        <v>1296</v>
+        <v>35</v>
       </c>
       <c r="H492" s="3">
         <v>0</v>
       </c>
       <c r="I492" s="2" t="s">
-        <v>1297</v>
+        <v>1308</v>
       </c>
       <c r="J492" s="3">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K492" s="4">
-        <v>4.1474999999999998E-2</v>
+        <v>6.6360000000000002E-2</v>
       </c>
       <c r="L492" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M492" s="1" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="493" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -25299,31 +25305,31 @@
         <v>1255</v>
       </c>
       <c r="E493" s="1" t="s">
-        <v>1298</v>
+        <v>76</v>
       </c>
       <c r="F493" s="1" t="s">
-        <v>1299</v>
+        <v>1303</v>
       </c>
       <c r="G493" s="1" t="s">
-        <v>1300</v>
+        <v>1304</v>
       </c>
       <c r="H493" s="3">
         <v>0</v>
       </c>
       <c r="I493" s="2" t="s">
-        <v>941</v>
+        <v>824</v>
       </c>
       <c r="J493" s="3">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K493" s="4">
-        <v>9.5392000000000005E-2</v>
+        <v>8.2949999999999996E-2</v>
       </c>
       <c r="L493" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M493" s="1" t="s">
-        <v>1301</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="494" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -25340,25 +25346,25 @@
         <v>1255</v>
       </c>
       <c r="E494" s="1" t="s">
-        <v>1302</v>
+        <v>76</v>
       </c>
       <c r="F494" s="1" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="G494" s="1" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="H494" s="3">
         <v>0</v>
       </c>
       <c r="I494" s="2" t="s">
-        <v>824</v>
+        <v>941</v>
       </c>
       <c r="J494" s="3">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K494" s="4">
-        <v>8.2949999999999996E-2</v>
+        <v>9.5392000000000005E-2</v>
       </c>
       <c r="L494" s="1" t="s">
         <v>21</v>
@@ -25381,25 +25387,25 @@
         <v>1255</v>
       </c>
       <c r="E495" s="1" t="s">
-        <v>1306</v>
+        <v>54</v>
       </c>
       <c r="F495" s="1" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="G495" s="1" t="s">
-        <v>35</v>
+        <v>1310</v>
       </c>
       <c r="H495" s="3">
         <v>0</v>
       </c>
       <c r="I495" s="2" t="s">
-        <v>1308</v>
+        <v>1311</v>
       </c>
       <c r="J495" s="3">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="K495" s="4">
-        <v>6.6360000000000002E-2</v>
+        <v>1.6590000000000001E-2</v>
       </c>
       <c r="L495" s="1" t="s">
         <v>21</v>
@@ -25422,25 +25428,25 @@
         <v>1255</v>
       </c>
       <c r="E496" s="1" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="F496" s="1" t="s">
-        <v>1307</v>
+        <v>1312</v>
       </c>
       <c r="G496" s="1" t="s">
-        <v>35</v>
+        <v>1313</v>
       </c>
       <c r="H496" s="3">
         <v>0</v>
       </c>
       <c r="I496" s="2" t="s">
-        <v>1308</v>
+        <v>1220</v>
       </c>
       <c r="J496" s="3">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="K496" s="4">
-        <v>6.6360000000000002E-2</v>
+        <v>1.2442E-2</v>
       </c>
       <c r="L496" s="1" t="s">
         <v>21</v>
@@ -25463,31 +25469,31 @@
         <v>1255</v>
       </c>
       <c r="E497" s="1" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="F497" s="1" t="s">
-        <v>1303</v>
+        <v>1314</v>
       </c>
       <c r="G497" s="1" t="s">
-        <v>1304</v>
+        <v>1315</v>
       </c>
       <c r="H497" s="3">
         <v>0</v>
       </c>
       <c r="I497" s="2" t="s">
-        <v>824</v>
+        <v>366</v>
       </c>
       <c r="J497" s="3">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="K497" s="4">
-        <v>8.2949999999999996E-2</v>
+        <v>8.2950000000000003E-3</v>
       </c>
       <c r="L497" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M497" s="1" t="s">
-        <v>1305</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="498" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -25504,31 +25510,31 @@
         <v>1255</v>
       </c>
       <c r="E498" s="1" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="F498" s="1" t="s">
-        <v>1299</v>
+        <v>1317</v>
       </c>
       <c r="G498" s="1" t="s">
-        <v>1300</v>
+        <v>1318</v>
       </c>
       <c r="H498" s="3">
         <v>0</v>
       </c>
       <c r="I498" s="2" t="s">
-        <v>941</v>
+        <v>1319</v>
       </c>
       <c r="J498" s="3">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="K498" s="4">
-        <v>9.5392000000000005E-2</v>
+        <v>8.2950000000000003E-3</v>
       </c>
       <c r="L498" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M498" s="1" t="s">
-        <v>1305</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="499" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -25548,28 +25554,28 @@
         <v>54</v>
       </c>
       <c r="F499" s="1" t="s">
-        <v>1309</v>
+        <v>1320</v>
       </c>
       <c r="G499" s="1" t="s">
-        <v>1310</v>
+        <v>1321</v>
       </c>
       <c r="H499" s="3">
         <v>0</v>
       </c>
       <c r="I499" s="2" t="s">
-        <v>1311</v>
+        <v>1322</v>
       </c>
       <c r="J499" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K499" s="4">
-        <v>1.6590000000000001E-2</v>
+        <v>1.2442E-2</v>
       </c>
       <c r="L499" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M499" s="1" t="s">
-        <v>1305</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="500" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -25586,7 +25592,7 @@
         <v>1255</v>
       </c>
       <c r="E500" s="1" t="s">
-        <v>54</v>
+        <v>1298</v>
       </c>
       <c r="F500" s="1" t="s">
         <v>1312</v>
@@ -25598,7 +25604,7 @@
         <v>0</v>
       </c>
       <c r="I500" s="2" t="s">
-        <v>1236</v>
+        <v>1220</v>
       </c>
       <c r="J500" s="3">
         <v>3</v>
@@ -25610,7 +25616,7 @@
         <v>21</v>
       </c>
       <c r="M500" s="1" t="s">
-        <v>1305</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="501" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -25627,31 +25633,31 @@
         <v>1255</v>
       </c>
       <c r="E501" s="1" t="s">
-        <v>54</v>
+        <v>1298</v>
       </c>
       <c r="F501" s="1" t="s">
-        <v>1314</v>
+        <v>1325</v>
       </c>
       <c r="G501" s="1" t="s">
-        <v>1315</v>
+        <v>1326</v>
       </c>
       <c r="H501" s="3">
         <v>0</v>
       </c>
       <c r="I501" s="2" t="s">
-        <v>366</v>
+        <v>1311</v>
       </c>
       <c r="J501" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K501" s="4">
-        <v>8.2950000000000003E-3</v>
+        <v>1.6590000000000001E-2</v>
       </c>
       <c r="L501" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M501" s="1" t="s">
-        <v>1316</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="502" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -25668,31 +25674,31 @@
         <v>1255</v>
       </c>
       <c r="E502" s="1" t="s">
-        <v>54</v>
+        <v>1298</v>
       </c>
       <c r="F502" s="1" t="s">
-        <v>1317</v>
+        <v>1327</v>
       </c>
       <c r="G502" s="1" t="s">
-        <v>1318</v>
+        <v>1328</v>
       </c>
       <c r="H502" s="3">
         <v>0</v>
       </c>
       <c r="I502" s="2" t="s">
-        <v>1319</v>
+        <v>1215</v>
       </c>
       <c r="J502" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K502" s="4">
-        <v>8.2950000000000003E-3</v>
+        <v>1.2442E-2</v>
       </c>
       <c r="L502" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M502" s="1" t="s">
-        <v>1316</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="503" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -25709,25 +25715,25 @@
         <v>1255</v>
       </c>
       <c r="E503" s="1" t="s">
-        <v>54</v>
+        <v>1298</v>
       </c>
       <c r="F503" s="1" t="s">
-        <v>1320</v>
+        <v>1329</v>
       </c>
       <c r="G503" s="1" t="s">
-        <v>1321</v>
+        <v>1330</v>
       </c>
       <c r="H503" s="3">
         <v>0</v>
       </c>
       <c r="I503" s="2" t="s">
-        <v>1322</v>
+        <v>366</v>
       </c>
       <c r="J503" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K503" s="4">
-        <v>1.2442E-2</v>
+        <v>8.2950000000000003E-3</v>
       </c>
       <c r="L503" s="1" t="s">
         <v>21</v>
@@ -25753,28 +25759,28 @@
         <v>1298</v>
       </c>
       <c r="F504" s="1" t="s">
-        <v>1312</v>
+        <v>1331</v>
       </c>
       <c r="G504" s="1" t="s">
-        <v>1313</v>
+        <v>1332</v>
       </c>
       <c r="H504" s="3">
         <v>0</v>
       </c>
       <c r="I504" s="2" t="s">
-        <v>1236</v>
+        <v>366</v>
       </c>
       <c r="J504" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K504" s="4">
-        <v>1.2442E-2</v>
+        <v>8.2950000000000003E-3</v>
       </c>
       <c r="L504" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M504" s="1" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="505" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -25794,28 +25800,28 @@
         <v>1298</v>
       </c>
       <c r="F505" s="1" t="s">
-        <v>1325</v>
+        <v>1333</v>
       </c>
       <c r="G505" s="1" t="s">
-        <v>1326</v>
+        <v>1334</v>
       </c>
       <c r="H505" s="3">
         <v>0</v>
       </c>
       <c r="I505" s="2" t="s">
-        <v>1311</v>
+        <v>366</v>
       </c>
       <c r="J505" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K505" s="4">
-        <v>1.6590000000000001E-2</v>
+        <v>8.2950000000000003E-3</v>
       </c>
       <c r="L505" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M505" s="1" t="s">
-        <v>1323</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="506" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -25835,16 +25841,16 @@
         <v>1298</v>
       </c>
       <c r="F506" s="1" t="s">
-        <v>1327</v>
+        <v>1336</v>
       </c>
       <c r="G506" s="1" t="s">
-        <v>1328</v>
+        <v>1337</v>
       </c>
       <c r="H506" s="3">
         <v>0</v>
       </c>
       <c r="I506" s="2" t="s">
-        <v>1233</v>
+        <v>1338</v>
       </c>
       <c r="J506" s="3">
         <v>3</v>
@@ -25856,7 +25862,7 @@
         <v>21</v>
       </c>
       <c r="M506" s="1" t="s">
-        <v>1323</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="507" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -25876,28 +25882,28 @@
         <v>1298</v>
       </c>
       <c r="F507" s="1" t="s">
-        <v>1329</v>
+        <v>1339</v>
       </c>
       <c r="G507" s="1" t="s">
-        <v>1330</v>
+        <v>1340</v>
       </c>
       <c r="H507" s="3">
         <v>0</v>
       </c>
       <c r="I507" s="2" t="s">
-        <v>366</v>
+        <v>1311</v>
       </c>
       <c r="J507" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K507" s="4">
-        <v>8.2950000000000003E-3</v>
+        <v>1.6590000000000001E-2</v>
       </c>
       <c r="L507" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M507" s="1" t="s">
-        <v>1323</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="508" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -25917,28 +25923,28 @@
         <v>1298</v>
       </c>
       <c r="F508" s="1" t="s">
-        <v>1331</v>
+        <v>1341</v>
       </c>
       <c r="G508" s="1" t="s">
-        <v>1332</v>
+        <v>130</v>
       </c>
       <c r="H508" s="3">
         <v>0</v>
       </c>
       <c r="I508" s="2" t="s">
-        <v>366</v>
+        <v>1342</v>
       </c>
       <c r="J508" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K508" s="4">
-        <v>8.2950000000000003E-3</v>
+        <v>1.6590000000000001E-2</v>
       </c>
       <c r="L508" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M508" s="1" t="s">
-        <v>1323</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="509" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -25955,25 +25961,25 @@
         <v>1255</v>
       </c>
       <c r="E509" s="1" t="s">
-        <v>1298</v>
+        <v>1302</v>
       </c>
       <c r="F509" s="1" t="s">
-        <v>1333</v>
+        <v>1343</v>
       </c>
       <c r="G509" s="1" t="s">
-        <v>1334</v>
+        <v>823</v>
       </c>
       <c r="H509" s="3">
         <v>0</v>
       </c>
       <c r="I509" s="2" t="s">
-        <v>366</v>
+        <v>1311</v>
       </c>
       <c r="J509" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K509" s="4">
-        <v>8.2950000000000003E-3</v>
+        <v>1.6590000000000001E-2</v>
       </c>
       <c r="L509" s="1" t="s">
         <v>21</v>
@@ -25996,25 +26002,25 @@
         <v>1255</v>
       </c>
       <c r="E510" s="1" t="s">
-        <v>1298</v>
+        <v>1302</v>
       </c>
       <c r="F510" s="1" t="s">
-        <v>1336</v>
+        <v>1344</v>
       </c>
       <c r="G510" s="1" t="s">
-        <v>1337</v>
+        <v>1345</v>
       </c>
       <c r="H510" s="3">
         <v>0</v>
       </c>
       <c r="I510" s="2" t="s">
-        <v>1338</v>
+        <v>1311</v>
       </c>
       <c r="J510" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K510" s="4">
-        <v>1.2442E-2</v>
+        <v>1.6590000000000001E-2</v>
       </c>
       <c r="L510" s="1" t="s">
         <v>21</v>
@@ -26037,13 +26043,13 @@
         <v>1255</v>
       </c>
       <c r="E511" s="1" t="s">
-        <v>1298</v>
+        <v>1302</v>
       </c>
       <c r="F511" s="1" t="s">
-        <v>1339</v>
+        <v>1346</v>
       </c>
       <c r="G511" s="1" t="s">
-        <v>1340</v>
+        <v>1347</v>
       </c>
       <c r="H511" s="3">
         <v>0</v>
@@ -26078,25 +26084,25 @@
         <v>1255</v>
       </c>
       <c r="E512" s="1" t="s">
-        <v>1298</v>
+        <v>1302</v>
       </c>
       <c r="F512" s="1" t="s">
-        <v>1341</v>
+        <v>1348</v>
       </c>
       <c r="G512" s="1" t="s">
-        <v>130</v>
+        <v>1349</v>
       </c>
       <c r="H512" s="3">
         <v>0</v>
       </c>
       <c r="I512" s="2" t="s">
-        <v>1342</v>
+        <v>1220</v>
       </c>
       <c r="J512" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K512" s="4">
-        <v>1.6590000000000001E-2</v>
+        <v>1.2442E-2</v>
       </c>
       <c r="L512" s="1" t="s">
         <v>21</v>
@@ -26122,10 +26128,10 @@
         <v>1302</v>
       </c>
       <c r="F513" s="1" t="s">
-        <v>1343</v>
+        <v>1350</v>
       </c>
       <c r="G513" s="1" t="s">
-        <v>823</v>
+        <v>1351</v>
       </c>
       <c r="H513" s="3">
         <v>0</v>
@@ -26163,16 +26169,16 @@
         <v>1302</v>
       </c>
       <c r="F514" s="1" t="s">
-        <v>1344</v>
+        <v>1352</v>
       </c>
       <c r="G514" s="1" t="s">
-        <v>1345</v>
+        <v>1353</v>
       </c>
       <c r="H514" s="3">
         <v>0</v>
       </c>
       <c r="I514" s="2" t="s">
-        <v>1311</v>
+        <v>1342</v>
       </c>
       <c r="J514" s="3">
         <v>4</v>
@@ -26204,28 +26210,28 @@
         <v>1302</v>
       </c>
       <c r="F515" s="1" t="s">
-        <v>1346</v>
+        <v>1317</v>
       </c>
       <c r="G515" s="1" t="s">
-        <v>1347</v>
+        <v>1318</v>
       </c>
       <c r="H515" s="3">
         <v>0</v>
       </c>
       <c r="I515" s="2" t="s">
-        <v>1311</v>
+        <v>1319</v>
       </c>
       <c r="J515" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K515" s="4">
-        <v>1.6590000000000001E-2</v>
+        <v>8.2950000000000003E-3</v>
       </c>
       <c r="L515" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M515" s="1" t="s">
-        <v>1335</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="516" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -26245,16 +26251,16 @@
         <v>1302</v>
       </c>
       <c r="F516" s="1" t="s">
-        <v>1348</v>
+        <v>1355</v>
       </c>
       <c r="G516" s="1" t="s">
-        <v>1349</v>
+        <v>1356</v>
       </c>
       <c r="H516" s="3">
         <v>0</v>
       </c>
       <c r="I516" s="2" t="s">
-        <v>1236</v>
+        <v>1338</v>
       </c>
       <c r="J516" s="3">
         <v>3</v>
@@ -26266,7 +26272,7 @@
         <v>21</v>
       </c>
       <c r="M516" s="1" t="s">
-        <v>1335</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="517" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -26286,28 +26292,28 @@
         <v>1302</v>
       </c>
       <c r="F517" s="1" t="s">
-        <v>1350</v>
+        <v>1357</v>
       </c>
       <c r="G517" s="1" t="s">
-        <v>1351</v>
+        <v>1358</v>
       </c>
       <c r="H517" s="3">
         <v>0</v>
       </c>
       <c r="I517" s="2" t="s">
-        <v>1311</v>
+        <v>1338</v>
       </c>
       <c r="J517" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K517" s="4">
-        <v>1.6590000000000001E-2</v>
+        <v>1.2442E-2</v>
       </c>
       <c r="L517" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M517" s="1" t="s">
-        <v>1335</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="518" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -26324,19 +26330,19 @@
         <v>1255</v>
       </c>
       <c r="E518" s="1" t="s">
-        <v>1302</v>
+        <v>1306</v>
       </c>
       <c r="F518" s="1" t="s">
-        <v>1352</v>
+        <v>1359</v>
       </c>
       <c r="G518" s="1" t="s">
-        <v>1353</v>
+        <v>1360</v>
       </c>
       <c r="H518" s="3">
         <v>0</v>
       </c>
       <c r="I518" s="2" t="s">
-        <v>1342</v>
+        <v>1311</v>
       </c>
       <c r="J518" s="3">
         <v>4</v>
@@ -26348,7 +26354,7 @@
         <v>21</v>
       </c>
       <c r="M518" s="1" t="s">
-        <v>1335</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="519" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -26365,31 +26371,31 @@
         <v>1255</v>
       </c>
       <c r="E519" s="1" t="s">
-        <v>1302</v>
+        <v>1306</v>
       </c>
       <c r="F519" s="1" t="s">
-        <v>1317</v>
+        <v>1044</v>
       </c>
       <c r="G519" s="1" t="s">
-        <v>1318</v>
+        <v>1041</v>
       </c>
       <c r="H519" s="3">
         <v>0</v>
       </c>
       <c r="I519" s="2" t="s">
-        <v>1319</v>
+        <v>1311</v>
       </c>
       <c r="J519" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K519" s="4">
-        <v>8.2950000000000003E-3</v>
+        <v>1.6590000000000001E-2</v>
       </c>
       <c r="L519" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M519" s="1" t="s">
-        <v>1354</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="520" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -26406,31 +26412,31 @@
         <v>1255</v>
       </c>
       <c r="E520" s="1" t="s">
-        <v>1302</v>
+        <v>1306</v>
       </c>
       <c r="F520" s="1" t="s">
-        <v>1355</v>
+        <v>1362</v>
       </c>
       <c r="G520" s="1" t="s">
-        <v>1356</v>
+        <v>1363</v>
       </c>
       <c r="H520" s="3">
         <v>0</v>
       </c>
       <c r="I520" s="2" t="s">
-        <v>1338</v>
+        <v>1311</v>
       </c>
       <c r="J520" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K520" s="4">
-        <v>1.2442E-2</v>
+        <v>1.6590000000000001E-2</v>
       </c>
       <c r="L520" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M520" s="1" t="s">
-        <v>1354</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="521" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -26447,31 +26453,31 @@
         <v>1255</v>
       </c>
       <c r="E521" s="1" t="s">
-        <v>1302</v>
+        <v>1306</v>
       </c>
       <c r="F521" s="1" t="s">
-        <v>1357</v>
+        <v>1364</v>
       </c>
       <c r="G521" s="1" t="s">
-        <v>1358</v>
+        <v>1365</v>
       </c>
       <c r="H521" s="3">
         <v>0</v>
       </c>
       <c r="I521" s="2" t="s">
-        <v>1338</v>
+        <v>1342</v>
       </c>
       <c r="J521" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K521" s="4">
-        <v>1.2442E-2</v>
+        <v>1.6590000000000001E-2</v>
       </c>
       <c r="L521" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M521" s="1" t="s">
-        <v>1354</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="522" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -26491,22 +26497,22 @@
         <v>1306</v>
       </c>
       <c r="F522" s="1" t="s">
-        <v>1359</v>
+        <v>1314</v>
       </c>
       <c r="G522" s="1" t="s">
-        <v>1360</v>
+        <v>1315</v>
       </c>
       <c r="H522" s="3">
         <v>0</v>
       </c>
       <c r="I522" s="2" t="s">
-        <v>1311</v>
+        <v>366</v>
       </c>
       <c r="J522" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K522" s="4">
-        <v>1.6590000000000001E-2</v>
+        <v>8.2950000000000003E-3</v>
       </c>
       <c r="L522" s="1" t="s">
         <v>21</v>
@@ -26532,16 +26538,16 @@
         <v>1306</v>
       </c>
       <c r="F523" s="1" t="s">
-        <v>1044</v>
+        <v>1366</v>
       </c>
       <c r="G523" s="1" t="s">
-        <v>1041</v>
+        <v>1367</v>
       </c>
       <c r="H523" s="3">
         <v>0</v>
       </c>
       <c r="I523" s="2" t="s">
-        <v>1311</v>
+        <v>1342</v>
       </c>
       <c r="J523" s="3">
         <v>4</v>
@@ -26573,22 +26579,22 @@
         <v>1306</v>
       </c>
       <c r="F524" s="1" t="s">
-        <v>1362</v>
+        <v>1368</v>
       </c>
       <c r="G524" s="1" t="s">
-        <v>1363</v>
+        <v>1369</v>
       </c>
       <c r="H524" s="3">
         <v>0</v>
       </c>
       <c r="I524" s="2" t="s">
-        <v>1311</v>
+        <v>1237</v>
       </c>
       <c r="J524" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K524" s="4">
-        <v>1.6590000000000001E-2</v>
+        <v>8.2950000000000003E-3</v>
       </c>
       <c r="L524" s="1" t="s">
         <v>21</v>
@@ -26614,22 +26620,22 @@
         <v>1306</v>
       </c>
       <c r="F525" s="1" t="s">
-        <v>1364</v>
+        <v>1370</v>
       </c>
       <c r="G525" s="1" t="s">
-        <v>1365</v>
+        <v>1371</v>
       </c>
       <c r="H525" s="3">
         <v>0</v>
       </c>
       <c r="I525" s="2" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="J525" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K525" s="4">
-        <v>1.6590000000000001E-2</v>
+        <v>1.2442E-2</v>
       </c>
       <c r="L525" s="1" t="s">
         <v>21</v>
@@ -26655,22 +26661,22 @@
         <v>1306</v>
       </c>
       <c r="F526" s="1" t="s">
-        <v>1314</v>
+        <v>1372</v>
       </c>
       <c r="G526" s="1" t="s">
-        <v>1315</v>
+        <v>1373</v>
       </c>
       <c r="H526" s="3">
         <v>0</v>
       </c>
       <c r="I526" s="2" t="s">
-        <v>366</v>
+        <v>1338</v>
       </c>
       <c r="J526" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K526" s="4">
-        <v>8.2950000000000003E-3</v>
+        <v>1.2442E-2</v>
       </c>
       <c r="L526" s="1" t="s">
         <v>21</v>
@@ -26696,16 +26702,16 @@
         <v>1306</v>
       </c>
       <c r="F527" s="1" t="s">
-        <v>1366</v>
+        <v>1374</v>
       </c>
       <c r="G527" s="1" t="s">
-        <v>1367</v>
+        <v>1375</v>
       </c>
       <c r="H527" s="3">
         <v>0</v>
       </c>
       <c r="I527" s="2" t="s">
-        <v>1342</v>
+        <v>1311</v>
       </c>
       <c r="J527" s="3">
         <v>4</v>
@@ -26737,22 +26743,22 @@
         <v>1306</v>
       </c>
       <c r="F528" s="1" t="s">
-        <v>1368</v>
+        <v>1376</v>
       </c>
       <c r="G528" s="1" t="s">
-        <v>1369</v>
+        <v>1377</v>
       </c>
       <c r="H528" s="3">
         <v>0</v>
       </c>
       <c r="I528" s="2" t="s">
-        <v>1224</v>
+        <v>1342</v>
       </c>
       <c r="J528" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K528" s="4">
-        <v>8.2950000000000003E-3</v>
+        <v>1.6590000000000001E-2</v>
       </c>
       <c r="L528" s="1" t="s">
         <v>21</v>
@@ -26775,31 +26781,31 @@
         <v>1255</v>
       </c>
       <c r="E529" s="1" t="s">
-        <v>1306</v>
+        <v>1298</v>
       </c>
       <c r="F529" s="1" t="s">
-        <v>1370</v>
+        <v>1263</v>
       </c>
       <c r="G529" s="1" t="s">
-        <v>1371</v>
+        <v>1264</v>
       </c>
       <c r="H529" s="3">
         <v>0</v>
       </c>
       <c r="I529" s="2" t="s">
-        <v>1338</v>
+        <v>1265</v>
       </c>
       <c r="J529" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K529" s="4">
-        <v>1.2442E-2</v>
+        <v>4.1474999999999998E-2</v>
       </c>
       <c r="L529" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M529" s="1" t="s">
-        <v>1361</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="530" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -26816,31 +26822,31 @@
         <v>1255</v>
       </c>
       <c r="E530" s="1" t="s">
-        <v>1306</v>
+        <v>68</v>
       </c>
       <c r="F530" s="1" t="s">
-        <v>1372</v>
+        <v>1263</v>
       </c>
       <c r="G530" s="1" t="s">
-        <v>1373</v>
+        <v>1264</v>
       </c>
       <c r="H530" s="3">
         <v>0</v>
       </c>
       <c r="I530" s="2" t="s">
-        <v>1338</v>
+        <v>1265</v>
       </c>
       <c r="J530" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K530" s="4">
-        <v>1.2442E-2</v>
+        <v>4.1474999999999998E-2</v>
       </c>
       <c r="L530" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M530" s="1" t="s">
-        <v>1361</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="531" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -26857,19 +26863,19 @@
         <v>1255</v>
       </c>
       <c r="E531" s="1" t="s">
-        <v>1306</v>
+        <v>68</v>
       </c>
       <c r="F531" s="1" t="s">
-        <v>1374</v>
+        <v>1309</v>
       </c>
       <c r="G531" s="1" t="s">
-        <v>1375</v>
+        <v>1378</v>
       </c>
       <c r="H531" s="3">
         <v>0</v>
       </c>
       <c r="I531" s="2" t="s">
-        <v>1311</v>
+        <v>1342</v>
       </c>
       <c r="J531" s="3">
         <v>4</v>
@@ -26881,7 +26887,7 @@
         <v>21</v>
       </c>
       <c r="M531" s="1" t="s">
-        <v>1361</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="532" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -26898,31 +26904,31 @@
         <v>1255</v>
       </c>
       <c r="E532" s="1" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="F532" s="1" t="s">
-        <v>1376</v>
+        <v>1263</v>
       </c>
       <c r="G532" s="1" t="s">
-        <v>1377</v>
+        <v>1264</v>
       </c>
       <c r="H532" s="3">
         <v>0</v>
       </c>
       <c r="I532" s="2" t="s">
-        <v>1342</v>
+        <v>1265</v>
       </c>
       <c r="J532" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K532" s="4">
-        <v>1.6590000000000001E-2</v>
+        <v>4.1474999999999998E-2</v>
       </c>
       <c r="L532" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M532" s="1" t="s">
-        <v>1361</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="533" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -26939,7 +26945,7 @@
         <v>1255</v>
       </c>
       <c r="E533" s="1" t="s">
-        <v>1298</v>
+        <v>1306</v>
       </c>
       <c r="F533" s="1" t="s">
         <v>1263</v>
@@ -26963,7 +26969,7 @@
         <v>21</v>
       </c>
       <c r="M533" s="1" t="s">
-        <v>1324</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="534" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -26980,31 +26986,31 @@
         <v>1255</v>
       </c>
       <c r="E534" s="1" t="s">
-        <v>68</v>
+        <v>1306</v>
       </c>
       <c r="F534" s="1" t="s">
-        <v>1263</v>
+        <v>1267</v>
       </c>
       <c r="G534" s="1" t="s">
-        <v>1264</v>
+        <v>1268</v>
       </c>
       <c r="H534" s="3">
         <v>0</v>
       </c>
       <c r="I534" s="2" t="s">
-        <v>1265</v>
+        <v>1269</v>
       </c>
       <c r="J534" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K534" s="4">
-        <v>4.1474999999999998E-2</v>
+        <v>3.7326999999999999E-2</v>
       </c>
       <c r="L534" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M534" s="1" t="s">
-        <v>1324</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="535" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -27021,31 +27027,31 @@
         <v>1255</v>
       </c>
       <c r="E535" s="1" t="s">
-        <v>68</v>
+        <v>1302</v>
       </c>
       <c r="F535" s="1" t="s">
-        <v>1309</v>
+        <v>1267</v>
       </c>
       <c r="G535" s="1" t="s">
-        <v>1378</v>
+        <v>1268</v>
       </c>
       <c r="H535" s="3">
         <v>0</v>
       </c>
       <c r="I535" s="2" t="s">
-        <v>1342</v>
+        <v>1269</v>
       </c>
       <c r="J535" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K535" s="4">
-        <v>1.6590000000000001E-2</v>
+        <v>3.7326999999999999E-2</v>
       </c>
       <c r="L535" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M535" s="1" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="536" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -27062,25 +27068,25 @@
         <v>1255</v>
       </c>
       <c r="E536" s="1" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="F536" s="1" t="s">
-        <v>1263</v>
+        <v>1267</v>
       </c>
       <c r="G536" s="1" t="s">
-        <v>1264</v>
+        <v>1268</v>
       </c>
       <c r="H536" s="3">
         <v>0</v>
       </c>
       <c r="I536" s="2" t="s">
-        <v>1265</v>
+        <v>1269</v>
       </c>
       <c r="J536" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K536" s="4">
-        <v>4.1474999999999998E-2</v>
+        <v>3.7326999999999999E-2</v>
       </c>
       <c r="L536" s="1" t="s">
         <v>21</v>
@@ -27103,25 +27109,25 @@
         <v>1255</v>
       </c>
       <c r="E537" s="1" t="s">
-        <v>1306</v>
+        <v>1298</v>
       </c>
       <c r="F537" s="1" t="s">
-        <v>1263</v>
+        <v>1270</v>
       </c>
       <c r="G537" s="1" t="s">
-        <v>1264</v>
+        <v>1271</v>
       </c>
       <c r="H537" s="3">
         <v>0</v>
       </c>
       <c r="I537" s="2" t="s">
-        <v>1265</v>
+        <v>1200</v>
       </c>
       <c r="J537" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K537" s="4">
-        <v>4.1474999999999998E-2</v>
+        <v>4.5622000000000003E-2</v>
       </c>
       <c r="L537" s="1" t="s">
         <v>21</v>
@@ -27144,25 +27150,25 @@
         <v>1255</v>
       </c>
       <c r="E538" s="1" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="F538" s="1" t="s">
-        <v>1267</v>
+        <v>1270</v>
       </c>
       <c r="G538" s="1" t="s">
-        <v>1268</v>
+        <v>1271</v>
       </c>
       <c r="H538" s="3">
         <v>0</v>
       </c>
       <c r="I538" s="2" t="s">
-        <v>1269</v>
+        <v>1200</v>
       </c>
       <c r="J538" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K538" s="4">
-        <v>3.7326999999999999E-2</v>
+        <v>4.5622000000000003E-2</v>
       </c>
       <c r="L538" s="1" t="s">
         <v>21</v>
@@ -27185,25 +27191,25 @@
         <v>1255</v>
       </c>
       <c r="E539" s="1" t="s">
-        <v>1302</v>
+        <v>1306</v>
       </c>
       <c r="F539" s="1" t="s">
-        <v>1267</v>
+        <v>1270</v>
       </c>
       <c r="G539" s="1" t="s">
-        <v>1268</v>
+        <v>1271</v>
       </c>
       <c r="H539" s="3">
         <v>0</v>
       </c>
       <c r="I539" s="2" t="s">
-        <v>1269</v>
+        <v>1200</v>
       </c>
       <c r="J539" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K539" s="4">
-        <v>3.7326999999999999E-2</v>
+        <v>4.5622000000000003E-2</v>
       </c>
       <c r="L539" s="1" t="s">
         <v>21</v>
@@ -27226,25 +27232,25 @@
         <v>1255</v>
       </c>
       <c r="E540" s="1" t="s">
-        <v>1298</v>
+        <v>1306</v>
       </c>
       <c r="F540" s="1" t="s">
-        <v>1267</v>
+        <v>1272</v>
       </c>
       <c r="G540" s="1" t="s">
-        <v>1268</v>
+        <v>1273</v>
       </c>
       <c r="H540" s="3">
         <v>0</v>
       </c>
       <c r="I540" s="2" t="s">
-        <v>1269</v>
+        <v>1274</v>
       </c>
       <c r="J540" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K540" s="4">
-        <v>3.7326999999999999E-2</v>
+        <v>4.1474999999999998E-2</v>
       </c>
       <c r="L540" s="1" t="s">
         <v>21</v>
@@ -27267,25 +27273,25 @@
         <v>1255</v>
       </c>
       <c r="E541" s="1" t="s">
-        <v>1298</v>
+        <v>1302</v>
       </c>
       <c r="F541" s="1" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="G541" s="1" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="H541" s="3">
         <v>0</v>
       </c>
       <c r="I541" s="2" t="s">
-        <v>1200</v>
+        <v>1274</v>
       </c>
       <c r="J541" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K541" s="4">
-        <v>4.5622000000000003E-2</v>
+        <v>4.1474999999999998E-2</v>
       </c>
       <c r="L541" s="1" t="s">
         <v>21</v>
@@ -27308,25 +27314,25 @@
         <v>1255</v>
       </c>
       <c r="E542" s="1" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="F542" s="1" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="G542" s="1" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="H542" s="3">
         <v>0</v>
       </c>
       <c r="I542" s="2" t="s">
-        <v>1200</v>
+        <v>1274</v>
       </c>
       <c r="J542" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K542" s="4">
-        <v>4.5622000000000003E-2</v>
+        <v>4.1474999999999998E-2</v>
       </c>
       <c r="L542" s="1" t="s">
         <v>21</v>
@@ -27349,25 +27355,25 @@
         <v>1255</v>
       </c>
       <c r="E543" s="1" t="s">
-        <v>1306</v>
+        <v>1298</v>
       </c>
       <c r="F543" s="1" t="s">
-        <v>1270</v>
+        <v>1381</v>
       </c>
       <c r="G543" s="1" t="s">
-        <v>1271</v>
+        <v>1276</v>
       </c>
       <c r="H543" s="3">
         <v>0</v>
       </c>
       <c r="I543" s="2" t="s">
-        <v>1200</v>
+        <v>1204</v>
       </c>
       <c r="J543" s="3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K543" s="4">
-        <v>4.5622000000000003E-2</v>
+        <v>3.3180000000000001E-2</v>
       </c>
       <c r="L543" s="1" t="s">
         <v>21</v>
@@ -27390,25 +27396,25 @@
         <v>1255</v>
       </c>
       <c r="E544" s="1" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="F544" s="1" t="s">
-        <v>1272</v>
+        <v>1381</v>
       </c>
       <c r="G544" s="1" t="s">
-        <v>1273</v>
+        <v>1276</v>
       </c>
       <c r="H544" s="3">
         <v>0</v>
       </c>
       <c r="I544" s="2" t="s">
-        <v>1274</v>
+        <v>1204</v>
       </c>
       <c r="J544" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K544" s="4">
-        <v>4.1474999999999998E-2</v>
+        <v>3.3180000000000001E-2</v>
       </c>
       <c r="L544" s="1" t="s">
         <v>21</v>
@@ -27431,31 +27437,31 @@
         <v>1255</v>
       </c>
       <c r="E545" s="1" t="s">
-        <v>1302</v>
+        <v>1306</v>
       </c>
       <c r="F545" s="1" t="s">
-        <v>1272</v>
+        <v>1381</v>
       </c>
       <c r="G545" s="1" t="s">
-        <v>1273</v>
+        <v>1276</v>
       </c>
       <c r="H545" s="3">
         <v>0</v>
       </c>
       <c r="I545" s="2" t="s">
-        <v>1274</v>
+        <v>1204</v>
       </c>
       <c r="J545" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K545" s="4">
-        <v>4.1474999999999998E-2</v>
+        <v>3.3180000000000001E-2</v>
       </c>
       <c r="L545" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M545" s="1" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="546" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -27475,28 +27481,28 @@
         <v>1298</v>
       </c>
       <c r="F546" s="1" t="s">
-        <v>1272</v>
+        <v>1383</v>
       </c>
       <c r="G546" s="1" t="s">
-        <v>1273</v>
+        <v>1280</v>
       </c>
       <c r="H546" s="3">
         <v>0</v>
       </c>
       <c r="I546" s="2" t="s">
-        <v>1274</v>
+        <v>1207</v>
       </c>
       <c r="J546" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K546" s="4">
-        <v>4.1474999999999998E-2</v>
+        <v>3.7326999999999999E-2</v>
       </c>
       <c r="L546" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M546" s="1" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="547" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -27513,31 +27519,31 @@
         <v>1255</v>
       </c>
       <c r="E547" s="1" t="s">
-        <v>1298</v>
+        <v>1302</v>
       </c>
       <c r="F547" s="1" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="G547" s="1" t="s">
-        <v>1276</v>
+        <v>1280</v>
       </c>
       <c r="H547" s="3">
         <v>0</v>
       </c>
       <c r="I547" s="2" t="s">
-        <v>1204</v>
+        <v>1207</v>
       </c>
       <c r="J547" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K547" s="4">
-        <v>3.3180000000000001E-2</v>
+        <v>3.7326999999999999E-2</v>
       </c>
       <c r="L547" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M547" s="1" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="548" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -27554,31 +27560,31 @@
         <v>1255</v>
       </c>
       <c r="E548" s="1" t="s">
-        <v>1302</v>
+        <v>1306</v>
       </c>
       <c r="F548" s="1" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="G548" s="1" t="s">
-        <v>1276</v>
+        <v>1280</v>
       </c>
       <c r="H548" s="3">
         <v>0</v>
       </c>
       <c r="I548" s="2" t="s">
-        <v>1204</v>
+        <v>1207</v>
       </c>
       <c r="J548" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K548" s="4">
-        <v>3.3180000000000001E-2</v>
+        <v>3.7326999999999999E-2</v>
       </c>
       <c r="L548" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M548" s="1" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="549" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -27598,22 +27604,22 @@
         <v>1306</v>
       </c>
       <c r="F549" s="1" t="s">
-        <v>1381</v>
+        <v>1282</v>
       </c>
       <c r="G549" s="1" t="s">
-        <v>1276</v>
+        <v>1283</v>
       </c>
       <c r="H549" s="3">
         <v>0</v>
       </c>
       <c r="I549" s="2" t="s">
-        <v>1204</v>
+        <v>1284</v>
       </c>
       <c r="J549" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K549" s="4">
-        <v>3.3180000000000001E-2</v>
+        <v>3.7326999999999999E-2</v>
       </c>
       <c r="L549" s="1" t="s">
         <v>21</v>
@@ -27636,19 +27642,19 @@
         <v>1255</v>
       </c>
       <c r="E550" s="1" t="s">
-        <v>1298</v>
+        <v>1302</v>
       </c>
       <c r="F550" s="1" t="s">
-        <v>1383</v>
+        <v>1282</v>
       </c>
       <c r="G550" s="1" t="s">
-        <v>1280</v>
+        <v>1283</v>
       </c>
       <c r="H550" s="3">
         <v>0</v>
       </c>
       <c r="I550" s="2" t="s">
-        <v>1207</v>
+        <v>1284</v>
       </c>
       <c r="J550" s="3">
         <v>9</v>
@@ -27677,19 +27683,19 @@
         <v>1255</v>
       </c>
       <c r="E551" s="1" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="F551" s="1" t="s">
-        <v>1383</v>
+        <v>1282</v>
       </c>
       <c r="G551" s="1" t="s">
-        <v>1280</v>
+        <v>1283</v>
       </c>
       <c r="H551" s="3">
         <v>0</v>
       </c>
       <c r="I551" s="2" t="s">
-        <v>1207</v>
+        <v>1284</v>
       </c>
       <c r="J551" s="3">
         <v>9</v>
@@ -27718,19 +27724,19 @@
         <v>1255</v>
       </c>
       <c r="E552" s="1" t="s">
-        <v>1306</v>
+        <v>1298</v>
       </c>
       <c r="F552" s="1" t="s">
-        <v>1383</v>
+        <v>1285</v>
       </c>
       <c r="G552" s="1" t="s">
-        <v>1280</v>
+        <v>1286</v>
       </c>
       <c r="H552" s="3">
         <v>0</v>
       </c>
       <c r="I552" s="2" t="s">
-        <v>1207</v>
+        <v>1287</v>
       </c>
       <c r="J552" s="3">
         <v>9</v>
@@ -27759,19 +27765,19 @@
         <v>1255</v>
       </c>
       <c r="E553" s="1" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="F553" s="1" t="s">
-        <v>1282</v>
+        <v>1285</v>
       </c>
       <c r="G553" s="1" t="s">
-        <v>1283</v>
+        <v>1286</v>
       </c>
       <c r="H553" s="3">
         <v>0</v>
       </c>
       <c r="I553" s="2" t="s">
-        <v>1284</v>
+        <v>1287</v>
       </c>
       <c r="J553" s="3">
         <v>9</v>
@@ -27800,19 +27806,19 @@
         <v>1255</v>
       </c>
       <c r="E554" s="1" t="s">
-        <v>1302</v>
+        <v>1306</v>
       </c>
       <c r="F554" s="1" t="s">
-        <v>1282</v>
+        <v>1285</v>
       </c>
       <c r="G554" s="1" t="s">
-        <v>1283</v>
+        <v>1286</v>
       </c>
       <c r="H554" s="3">
         <v>0</v>
       </c>
       <c r="I554" s="2" t="s">
-        <v>1284</v>
+        <v>1287</v>
       </c>
       <c r="J554" s="3">
         <v>9</v>
@@ -27841,25 +27847,25 @@
         <v>1255</v>
       </c>
       <c r="E555" s="1" t="s">
-        <v>1298</v>
+        <v>1306</v>
       </c>
       <c r="F555" s="1" t="s">
-        <v>1282</v>
+        <v>1288</v>
       </c>
       <c r="G555" s="1" t="s">
-        <v>1283</v>
+        <v>1289</v>
       </c>
       <c r="H555" s="3">
         <v>0</v>
       </c>
       <c r="I555" s="2" t="s">
-        <v>1284</v>
+        <v>1290</v>
       </c>
       <c r="J555" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K555" s="4">
-        <v>3.7326999999999999E-2</v>
+        <v>3.3180000000000001E-2</v>
       </c>
       <c r="L555" s="1" t="s">
         <v>21</v>
@@ -27882,25 +27888,25 @@
         <v>1255</v>
       </c>
       <c r="E556" s="1" t="s">
-        <v>1298</v>
+        <v>1302</v>
       </c>
       <c r="F556" s="1" t="s">
-        <v>1285</v>
+        <v>1288</v>
       </c>
       <c r="G556" s="1" t="s">
-        <v>1286</v>
+        <v>1289</v>
       </c>
       <c r="H556" s="3">
         <v>0</v>
       </c>
       <c r="I556" s="2" t="s">
-        <v>1287</v>
+        <v>1290</v>
       </c>
       <c r="J556" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K556" s="4">
-        <v>3.7326999999999999E-2</v>
+        <v>3.3180000000000001E-2</v>
       </c>
       <c r="L556" s="1" t="s">
         <v>21</v>
@@ -27923,25 +27929,25 @@
         <v>1255</v>
       </c>
       <c r="E557" s="1" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="F557" s="1" t="s">
-        <v>1285</v>
+        <v>1288</v>
       </c>
       <c r="G557" s="1" t="s">
-        <v>1286</v>
+        <v>1289</v>
       </c>
       <c r="H557" s="3">
         <v>0</v>
       </c>
       <c r="I557" s="2" t="s">
-        <v>1287</v>
+        <v>1290</v>
       </c>
       <c r="J557" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K557" s="4">
-        <v>3.7326999999999999E-2</v>
+        <v>3.3180000000000001E-2</v>
       </c>
       <c r="L557" s="1" t="s">
         <v>21</v>
@@ -27964,25 +27970,25 @@
         <v>1255</v>
       </c>
       <c r="E558" s="1" t="s">
-        <v>1306</v>
+        <v>1298</v>
       </c>
       <c r="F558" s="1" t="s">
-        <v>1285</v>
+        <v>1291</v>
       </c>
       <c r="G558" s="1" t="s">
-        <v>1286</v>
+        <v>1292</v>
       </c>
       <c r="H558" s="3">
         <v>0</v>
       </c>
       <c r="I558" s="2" t="s">
-        <v>1287</v>
+        <v>1293</v>
       </c>
       <c r="J558" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K558" s="4">
-        <v>3.7326999999999999E-2</v>
+        <v>3.3180000000000001E-2</v>
       </c>
       <c r="L558" s="1" t="s">
         <v>21</v>
@@ -28008,16 +28014,16 @@
         <v>1306</v>
       </c>
       <c r="F559" s="1" t="s">
-        <v>1288</v>
+        <v>1291</v>
       </c>
       <c r="G559" s="1" t="s">
-        <v>1289</v>
+        <v>1292</v>
       </c>
       <c r="H559" s="3">
         <v>0</v>
       </c>
       <c r="I559" s="2" t="s">
-        <v>1290</v>
+        <v>1293</v>
       </c>
       <c r="J559" s="3">
         <v>8</v>
@@ -28046,31 +28052,31 @@
         <v>1255</v>
       </c>
       <c r="E560" s="1" t="s">
-        <v>1302</v>
+        <v>1306</v>
       </c>
       <c r="F560" s="1" t="s">
-        <v>1288</v>
+        <v>1384</v>
       </c>
       <c r="G560" s="1" t="s">
-        <v>1289</v>
+        <v>1296</v>
       </c>
       <c r="H560" s="3">
         <v>0</v>
       </c>
       <c r="I560" s="2" t="s">
-        <v>1290</v>
+        <v>1385</v>
       </c>
       <c r="J560" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K560" s="4">
-        <v>3.3180000000000001E-2</v>
+        <v>4.1474999999999998E-2</v>
       </c>
       <c r="L560" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M560" s="1" t="s">
-        <v>1382</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="561" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -28090,28 +28096,28 @@
         <v>1298</v>
       </c>
       <c r="F561" s="1" t="s">
-        <v>1288</v>
+        <v>1384</v>
       </c>
       <c r="G561" s="1" t="s">
-        <v>1289</v>
+        <v>1296</v>
       </c>
       <c r="H561" s="3">
         <v>0</v>
       </c>
       <c r="I561" s="2" t="s">
-        <v>1290</v>
+        <v>1385</v>
       </c>
       <c r="J561" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K561" s="4">
-        <v>3.3180000000000001E-2</v>
+        <v>4.1474999999999998E-2</v>
       </c>
       <c r="L561" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M561" s="1" t="s">
-        <v>1382</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="562" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -28128,31 +28134,31 @@
         <v>1255</v>
       </c>
       <c r="E562" s="1" t="s">
-        <v>1298</v>
+        <v>69</v>
       </c>
       <c r="F562" s="1" t="s">
-        <v>1291</v>
+        <v>1387</v>
       </c>
       <c r="G562" s="1" t="s">
-        <v>1292</v>
+        <v>1268</v>
       </c>
       <c r="H562" s="3">
         <v>0</v>
       </c>
       <c r="I562" s="2" t="s">
-        <v>1293</v>
+        <v>1388</v>
       </c>
       <c r="J562" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K562" s="4">
-        <v>3.3180000000000001E-2</v>
+        <v>3.7326999999999999E-2</v>
       </c>
       <c r="L562" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M562" s="1" t="s">
-        <v>1382</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="563" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -28169,31 +28175,31 @@
         <v>1255</v>
       </c>
       <c r="E563" s="1" t="s">
-        <v>1306</v>
+        <v>71</v>
       </c>
       <c r="F563" s="1" t="s">
-        <v>1291</v>
+        <v>1270</v>
       </c>
       <c r="G563" s="1" t="s">
-        <v>1292</v>
+        <v>1271</v>
       </c>
       <c r="H563" s="3">
         <v>0</v>
       </c>
       <c r="I563" s="2" t="s">
-        <v>1293</v>
+        <v>1200</v>
       </c>
       <c r="J563" s="3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K563" s="4">
-        <v>3.3180000000000001E-2</v>
+        <v>4.5622000000000003E-2</v>
       </c>
       <c r="L563" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M563" s="1" t="s">
-        <v>1382</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="564" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -28210,19 +28216,19 @@
         <v>1255</v>
       </c>
       <c r="E564" s="1" t="s">
-        <v>1306</v>
+        <v>73</v>
       </c>
       <c r="F564" s="1" t="s">
-        <v>1384</v>
+        <v>1272</v>
       </c>
       <c r="G564" s="1" t="s">
-        <v>1296</v>
+        <v>1273</v>
       </c>
       <c r="H564" s="3">
         <v>0</v>
       </c>
       <c r="I564" s="2" t="s">
-        <v>1385</v>
+        <v>1274</v>
       </c>
       <c r="J564" s="3">
         <v>10</v>
@@ -28251,25 +28257,25 @@
         <v>1255</v>
       </c>
       <c r="E565" s="1" t="s">
-        <v>1298</v>
+        <v>74</v>
       </c>
       <c r="F565" s="1" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="G565" s="1" t="s">
-        <v>1296</v>
+        <v>1276</v>
       </c>
       <c r="H565" s="3">
         <v>0</v>
       </c>
       <c r="I565" s="2" t="s">
-        <v>1385</v>
+        <v>1204</v>
       </c>
       <c r="J565" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K565" s="4">
-        <v>4.1474999999999998E-2</v>
+        <v>3.3180000000000001E-2</v>
       </c>
       <c r="L565" s="1" t="s">
         <v>21</v>
@@ -28292,19 +28298,19 @@
         <v>1255</v>
       </c>
       <c r="E566" s="1" t="s">
-        <v>69</v>
+        <v>240</v>
       </c>
       <c r="F566" s="1" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="G566" s="1" t="s">
-        <v>1268</v>
+        <v>1280</v>
       </c>
       <c r="H566" s="3">
         <v>0</v>
       </c>
       <c r="I566" s="2" t="s">
-        <v>1388</v>
+        <v>1207</v>
       </c>
       <c r="J566" s="3">
         <v>9</v>
@@ -28333,25 +28339,25 @@
         <v>1255</v>
       </c>
       <c r="E567" s="1" t="s">
-        <v>71</v>
+        <v>243</v>
       </c>
       <c r="F567" s="1" t="s">
-        <v>1270</v>
+        <v>1282</v>
       </c>
       <c r="G567" s="1" t="s">
-        <v>1271</v>
+        <v>1283</v>
       </c>
       <c r="H567" s="3">
         <v>0</v>
       </c>
       <c r="I567" s="2" t="s">
-        <v>1200</v>
+        <v>1284</v>
       </c>
       <c r="J567" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K567" s="4">
-        <v>4.5622000000000003E-2</v>
+        <v>3.7326999999999999E-2</v>
       </c>
       <c r="L567" s="1" t="s">
         <v>21</v>
@@ -28374,25 +28380,25 @@
         <v>1255</v>
       </c>
       <c r="E568" s="1" t="s">
-        <v>73</v>
+        <v>246</v>
       </c>
       <c r="F568" s="1" t="s">
-        <v>1272</v>
+        <v>1285</v>
       </c>
       <c r="G568" s="1" t="s">
-        <v>1273</v>
+        <v>1286</v>
       </c>
       <c r="H568" s="3">
         <v>0</v>
       </c>
       <c r="I568" s="2" t="s">
-        <v>1274</v>
+        <v>1287</v>
       </c>
       <c r="J568" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K568" s="4">
-        <v>4.1474999999999998E-2</v>
+        <v>3.7326999999999999E-2</v>
       </c>
       <c r="L568" s="1" t="s">
         <v>21</v>
@@ -28415,19 +28421,19 @@
         <v>1255</v>
       </c>
       <c r="E569" s="1" t="s">
-        <v>74</v>
+        <v>250</v>
       </c>
       <c r="F569" s="1" t="s">
-        <v>1381</v>
+        <v>1288</v>
       </c>
       <c r="G569" s="1" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
       <c r="H569" s="3">
         <v>0</v>
       </c>
       <c r="I569" s="2" t="s">
-        <v>1204</v>
+        <v>1290</v>
       </c>
       <c r="J569" s="3">
         <v>8</v>
@@ -28456,25 +28462,25 @@
         <v>1255</v>
       </c>
       <c r="E570" s="1" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="F570" s="1" t="s">
-        <v>1383</v>
+        <v>1389</v>
       </c>
       <c r="G570" s="1" t="s">
-        <v>1280</v>
+        <v>1292</v>
       </c>
       <c r="H570" s="3">
         <v>0</v>
       </c>
       <c r="I570" s="2" t="s">
-        <v>1207</v>
+        <v>1390</v>
       </c>
       <c r="J570" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K570" s="4">
-        <v>3.7326999999999999E-2</v>
+        <v>3.3180000000000001E-2</v>
       </c>
       <c r="L570" s="1" t="s">
         <v>21</v>
@@ -28497,31 +28503,31 @@
         <v>1255</v>
       </c>
       <c r="E571" s="1" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="F571" s="1" t="s">
-        <v>1282</v>
+        <v>1384</v>
       </c>
       <c r="G571" s="1" t="s">
-        <v>1283</v>
+        <v>1296</v>
       </c>
       <c r="H571" s="3">
         <v>0</v>
       </c>
       <c r="I571" s="2" t="s">
-        <v>1284</v>
+        <v>1385</v>
       </c>
       <c r="J571" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K571" s="4">
-        <v>3.7326999999999999E-2</v>
+        <v>4.1474999999999998E-2</v>
       </c>
       <c r="L571" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M571" s="1" t="s">
-        <v>1386</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="572" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -28538,31 +28544,31 @@
         <v>1255</v>
       </c>
       <c r="E572" s="1" t="s">
-        <v>246</v>
+        <v>69</v>
       </c>
       <c r="F572" s="1" t="s">
-        <v>1285</v>
+        <v>1312</v>
       </c>
       <c r="G572" s="1" t="s">
-        <v>1286</v>
+        <v>1391</v>
       </c>
       <c r="H572" s="3">
         <v>0</v>
       </c>
       <c r="I572" s="2" t="s">
-        <v>1287</v>
+        <v>1392</v>
       </c>
       <c r="J572" s="3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K572" s="4">
-        <v>3.7326999999999999E-2</v>
+        <v>1.2442E-2</v>
       </c>
       <c r="L572" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M572" s="1" t="s">
-        <v>1386</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="573" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -28579,31 +28585,31 @@
         <v>1255</v>
       </c>
       <c r="E573" s="1" t="s">
-        <v>250</v>
+        <v>71</v>
       </c>
       <c r="F573" s="1" t="s">
-        <v>1288</v>
+        <v>1325</v>
       </c>
       <c r="G573" s="1" t="s">
-        <v>1289</v>
+        <v>1326</v>
       </c>
       <c r="H573" s="3">
         <v>0</v>
       </c>
       <c r="I573" s="2" t="s">
-        <v>1290</v>
+        <v>1311</v>
       </c>
       <c r="J573" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K573" s="4">
-        <v>3.3180000000000001E-2</v>
+        <v>1.6590000000000001E-2</v>
       </c>
       <c r="L573" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M573" s="1" t="s">
-        <v>1386</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="574" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -28620,31 +28626,31 @@
         <v>1255</v>
       </c>
       <c r="E574" s="1" t="s">
-        <v>253</v>
+        <v>73</v>
       </c>
       <c r="F574" s="1" t="s">
-        <v>1389</v>
+        <v>1393</v>
       </c>
       <c r="G574" s="1" t="s">
-        <v>1292</v>
+        <v>1327</v>
       </c>
       <c r="H574" s="3">
         <v>0</v>
       </c>
       <c r="I574" s="2" t="s">
-        <v>1390</v>
+        <v>1311</v>
       </c>
       <c r="J574" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K574" s="4">
-        <v>3.3180000000000001E-2</v>
+        <v>1.6590000000000001E-2</v>
       </c>
       <c r="L574" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M574" s="1" t="s">
-        <v>1386</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="575" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -28661,25 +28667,25 @@
         <v>1255</v>
       </c>
       <c r="E575" s="1" t="s">
-        <v>254</v>
+        <v>74</v>
       </c>
       <c r="F575" s="1" t="s">
-        <v>1384</v>
+        <v>1327</v>
       </c>
       <c r="G575" s="1" t="s">
-        <v>1296</v>
+        <v>1328</v>
       </c>
       <c r="H575" s="3">
         <v>0</v>
       </c>
       <c r="I575" s="2" t="s">
-        <v>1385</v>
+        <v>1215</v>
       </c>
       <c r="J575" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K575" s="4">
-        <v>4.1474999999999998E-2</v>
+        <v>1.2442E-2</v>
       </c>
       <c r="L575" s="1" t="s">
         <v>21</v>
@@ -28702,25 +28708,25 @@
         <v>1255</v>
       </c>
       <c r="E576" s="1" t="s">
-        <v>69</v>
+        <v>240</v>
       </c>
       <c r="F576" s="1" t="s">
-        <v>1312</v>
+        <v>1329</v>
       </c>
       <c r="G576" s="1" t="s">
-        <v>1391</v>
+        <v>1330</v>
       </c>
       <c r="H576" s="3">
         <v>0</v>
       </c>
       <c r="I576" s="2" t="s">
-        <v>1221</v>
+        <v>366</v>
       </c>
       <c r="J576" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K576" s="4">
-        <v>1.2442E-2</v>
+        <v>8.2950000000000003E-3</v>
       </c>
       <c r="L576" s="1" t="s">
         <v>21</v>
@@ -28743,25 +28749,25 @@
         <v>1255</v>
       </c>
       <c r="E577" s="1" t="s">
-        <v>71</v>
+        <v>243</v>
       </c>
       <c r="F577" s="1" t="s">
-        <v>1325</v>
+        <v>1331</v>
       </c>
       <c r="G577" s="1" t="s">
-        <v>1326</v>
+        <v>1332</v>
       </c>
       <c r="H577" s="3">
         <v>0</v>
       </c>
       <c r="I577" s="2" t="s">
-        <v>1311</v>
+        <v>366</v>
       </c>
       <c r="J577" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K577" s="4">
-        <v>1.6590000000000001E-2</v>
+        <v>8.2950000000000003E-3</v>
       </c>
       <c r="L577" s="1" t="s">
         <v>21</v>
@@ -28784,25 +28790,25 @@
         <v>1255</v>
       </c>
       <c r="E578" s="1" t="s">
-        <v>73</v>
+        <v>246</v>
       </c>
       <c r="F578" s="1" t="s">
-        <v>1392</v>
+        <v>1333</v>
       </c>
       <c r="G578" s="1" t="s">
-        <v>1327</v>
+        <v>1334</v>
       </c>
       <c r="H578" s="3">
         <v>0</v>
       </c>
       <c r="I578" s="2" t="s">
-        <v>1311</v>
+        <v>366</v>
       </c>
       <c r="J578" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K578" s="4">
-        <v>1.6590000000000001E-2</v>
+        <v>8.2950000000000003E-3</v>
       </c>
       <c r="L578" s="1" t="s">
         <v>21</v>
@@ -28825,19 +28831,19 @@
         <v>1255</v>
       </c>
       <c r="E579" s="1" t="s">
-        <v>74</v>
+        <v>250</v>
       </c>
       <c r="F579" s="1" t="s">
-        <v>1327</v>
+        <v>1336</v>
       </c>
       <c r="G579" s="1" t="s">
-        <v>1328</v>
+        <v>1337</v>
       </c>
       <c r="H579" s="3">
         <v>0</v>
       </c>
       <c r="I579" s="2" t="s">
-        <v>1233</v>
+        <v>1338</v>
       </c>
       <c r="J579" s="3">
         <v>3</v>
@@ -28866,31 +28872,31 @@
         <v>1255</v>
       </c>
       <c r="E580" s="1" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="F580" s="1" t="s">
-        <v>1329</v>
+        <v>1339</v>
       </c>
       <c r="G580" s="1" t="s">
-        <v>1330</v>
+        <v>1340</v>
       </c>
       <c r="H580" s="3">
         <v>0</v>
       </c>
       <c r="I580" s="2" t="s">
-        <v>366</v>
+        <v>1311</v>
       </c>
       <c r="J580" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K580" s="4">
-        <v>8.2950000000000003E-3</v>
+        <v>1.6590000000000001E-2</v>
       </c>
       <c r="L580" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M580" s="1" t="s">
-        <v>1379</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="581" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -28907,31 +28913,31 @@
         <v>1255</v>
       </c>
       <c r="E581" s="1" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="F581" s="1" t="s">
-        <v>1331</v>
+        <v>1341</v>
       </c>
       <c r="G581" s="1" t="s">
-        <v>1332</v>
+        <v>1395</v>
       </c>
       <c r="H581" s="3">
         <v>0</v>
       </c>
       <c r="I581" s="2" t="s">
-        <v>366</v>
+        <v>1311</v>
       </c>
       <c r="J581" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K581" s="4">
-        <v>8.2950000000000003E-3</v>
+        <v>1.6590000000000001E-2</v>
       </c>
       <c r="L581" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M581" s="1" t="s">
-        <v>1379</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="582" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -28948,31 +28954,31 @@
         <v>1255</v>
       </c>
       <c r="E582" s="1" t="s">
-        <v>246</v>
+        <v>68</v>
       </c>
       <c r="F582" s="1" t="s">
-        <v>1333</v>
+        <v>1343</v>
       </c>
       <c r="G582" s="1" t="s">
-        <v>1334</v>
+        <v>823</v>
       </c>
       <c r="H582" s="3">
         <v>0</v>
       </c>
       <c r="I582" s="2" t="s">
-        <v>366</v>
+        <v>1311</v>
       </c>
       <c r="J582" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K582" s="4">
-        <v>8.2950000000000003E-3</v>
+        <v>1.6590000000000001E-2</v>
       </c>
       <c r="L582" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M582" s="1" t="s">
-        <v>1379</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="583" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -28989,31 +28995,31 @@
         <v>1255</v>
       </c>
       <c r="E583" s="1" t="s">
-        <v>250</v>
+        <v>69</v>
       </c>
       <c r="F583" s="1" t="s">
-        <v>1336</v>
+        <v>1344</v>
       </c>
       <c r="G583" s="1" t="s">
-        <v>1337</v>
+        <v>1345</v>
       </c>
       <c r="H583" s="3">
         <v>0</v>
       </c>
       <c r="I583" s="2" t="s">
-        <v>1338</v>
+        <v>1311</v>
       </c>
       <c r="J583" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K583" s="4">
-        <v>1.2442E-2</v>
+        <v>1.6590000000000001E-2</v>
       </c>
       <c r="L583" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M583" s="1" t="s">
-        <v>1379</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="584" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -29030,13 +29036,13 @@
         <v>1255</v>
       </c>
       <c r="E584" s="1" t="s">
-        <v>253</v>
+        <v>71</v>
       </c>
       <c r="F584" s="1" t="s">
-        <v>1339</v>
+        <v>1346</v>
       </c>
       <c r="G584" s="1" t="s">
-        <v>1340</v>
+        <v>1347</v>
       </c>
       <c r="H584" s="3">
         <v>0</v>
@@ -29054,7 +29060,7 @@
         <v>21</v>
       </c>
       <c r="M584" s="1" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="585" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -29071,31 +29077,31 @@
         <v>1255</v>
       </c>
       <c r="E585" s="1" t="s">
-        <v>254</v>
+        <v>73</v>
       </c>
       <c r="F585" s="1" t="s">
-        <v>1341</v>
+        <v>1348</v>
       </c>
       <c r="G585" s="1" t="s">
+        <v>1396</v>
+      </c>
+      <c r="H585" s="3">
+        <v>0</v>
+      </c>
+      <c r="I585" s="2" t="s">
+        <v>1392</v>
+      </c>
+      <c r="J585" s="3">
+        <v>3</v>
+      </c>
+      <c r="K585" s="4">
+        <v>1.2442E-2</v>
+      </c>
+      <c r="L585" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M585" s="1" t="s">
         <v>1394</v>
-      </c>
-      <c r="H585" s="3">
-        <v>0</v>
-      </c>
-      <c r="I585" s="2" t="s">
-        <v>1311</v>
-      </c>
-      <c r="J585" s="3">
-        <v>4</v>
-      </c>
-      <c r="K585" s="4">
-        <v>1.6590000000000001E-2</v>
-      </c>
-      <c r="L585" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M585" s="1" t="s">
-        <v>1393</v>
       </c>
     </row>
     <row r="586" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -29112,13 +29118,13 @@
         <v>1255</v>
       </c>
       <c r="E586" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F586" s="1" t="s">
-        <v>1343</v>
+        <v>1350</v>
       </c>
       <c r="G586" s="1" t="s">
-        <v>823</v>
+        <v>1351</v>
       </c>
       <c r="H586" s="3">
         <v>0</v>
@@ -29136,7 +29142,7 @@
         <v>21</v>
       </c>
       <c r="M586" s="1" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="587" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -29153,13 +29159,13 @@
         <v>1255</v>
       </c>
       <c r="E587" s="1" t="s">
-        <v>69</v>
+        <v>240</v>
       </c>
       <c r="F587" s="1" t="s">
-        <v>1344</v>
+        <v>1352</v>
       </c>
       <c r="G587" s="1" t="s">
-        <v>1345</v>
+        <v>1397</v>
       </c>
       <c r="H587" s="3">
         <v>0</v>
@@ -29177,7 +29183,7 @@
         <v>21</v>
       </c>
       <c r="M587" s="1" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="588" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -29194,31 +29200,31 @@
         <v>1255</v>
       </c>
       <c r="E588" s="1" t="s">
-        <v>71</v>
+        <v>243</v>
       </c>
       <c r="F588" s="1" t="s">
-        <v>1346</v>
+        <v>1317</v>
       </c>
       <c r="G588" s="1" t="s">
-        <v>1347</v>
+        <v>1318</v>
       </c>
       <c r="H588" s="3">
         <v>0</v>
       </c>
       <c r="I588" s="2" t="s">
-        <v>1311</v>
+        <v>1319</v>
       </c>
       <c r="J588" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K588" s="4">
-        <v>1.6590000000000001E-2</v>
+        <v>8.2950000000000003E-3</v>
       </c>
       <c r="L588" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M588" s="1" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="589" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -29235,19 +29241,19 @@
         <v>1255</v>
       </c>
       <c r="E589" s="1" t="s">
-        <v>73</v>
+        <v>246</v>
       </c>
       <c r="F589" s="1" t="s">
-        <v>1348</v>
+        <v>1355</v>
       </c>
       <c r="G589" s="1" t="s">
-        <v>1395</v>
+        <v>1356</v>
       </c>
       <c r="H589" s="3">
         <v>0</v>
       </c>
       <c r="I589" s="2" t="s">
-        <v>1221</v>
+        <v>1338</v>
       </c>
       <c r="J589" s="3">
         <v>3</v>
@@ -29259,7 +29265,7 @@
         <v>21</v>
       </c>
       <c r="M589" s="1" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="590" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -29276,31 +29282,31 @@
         <v>1255</v>
       </c>
       <c r="E590" s="1" t="s">
-        <v>74</v>
+        <v>250</v>
       </c>
       <c r="F590" s="1" t="s">
-        <v>1350</v>
+        <v>1357</v>
       </c>
       <c r="G590" s="1" t="s">
-        <v>1351</v>
+        <v>1358</v>
       </c>
       <c r="H590" s="3">
         <v>0</v>
       </c>
       <c r="I590" s="2" t="s">
-        <v>1311</v>
+        <v>1338</v>
       </c>
       <c r="J590" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K590" s="4">
-        <v>1.6590000000000001E-2</v>
+        <v>1.2442E-2</v>
       </c>
       <c r="L590" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M590" s="1" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="591" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -29317,13 +29323,13 @@
         <v>1255</v>
       </c>
       <c r="E591" s="1" t="s">
-        <v>240</v>
+        <v>68</v>
       </c>
       <c r="F591" s="1" t="s">
-        <v>1352</v>
+        <v>1359</v>
       </c>
       <c r="G591" s="1" t="s">
-        <v>1396</v>
+        <v>1360</v>
       </c>
       <c r="H591" s="3">
         <v>0</v>
@@ -29341,7 +29347,7 @@
         <v>21</v>
       </c>
       <c r="M591" s="1" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="592" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -29358,31 +29364,31 @@
         <v>1255</v>
       </c>
       <c r="E592" s="1" t="s">
-        <v>243</v>
+        <v>69</v>
       </c>
       <c r="F592" s="1" t="s">
-        <v>1317</v>
+        <v>1044</v>
       </c>
       <c r="G592" s="1" t="s">
-        <v>1318</v>
+        <v>1041</v>
       </c>
       <c r="H592" s="3">
         <v>0</v>
       </c>
       <c r="I592" s="2" t="s">
-        <v>1319</v>
+        <v>1311</v>
       </c>
       <c r="J592" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K592" s="4">
-        <v>8.2950000000000003E-3</v>
+        <v>1.6590000000000001E-2</v>
       </c>
       <c r="L592" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M592" s="1" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="593" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -29399,31 +29405,31 @@
         <v>1255</v>
       </c>
       <c r="E593" s="1" t="s">
-        <v>246</v>
+        <v>71</v>
       </c>
       <c r="F593" s="1" t="s">
-        <v>1355</v>
+        <v>1362</v>
       </c>
       <c r="G593" s="1" t="s">
-        <v>1356</v>
+        <v>1363</v>
       </c>
       <c r="H593" s="3">
         <v>0</v>
       </c>
       <c r="I593" s="2" t="s">
-        <v>1338</v>
+        <v>1311</v>
       </c>
       <c r="J593" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K593" s="4">
-        <v>1.2442E-2</v>
+        <v>1.6590000000000001E-2</v>
       </c>
       <c r="L593" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M593" s="1" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="594" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -29440,31 +29446,31 @@
         <v>1255</v>
       </c>
       <c r="E594" s="1" t="s">
-        <v>250</v>
+        <v>73</v>
       </c>
       <c r="F594" s="1" t="s">
-        <v>1357</v>
+        <v>1364</v>
       </c>
       <c r="G594" s="1" t="s">
-        <v>1358</v>
+        <v>1398</v>
       </c>
       <c r="H594" s="3">
         <v>0</v>
       </c>
       <c r="I594" s="2" t="s">
-        <v>1338</v>
+        <v>1311</v>
       </c>
       <c r="J594" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K594" s="4">
-        <v>1.2442E-2</v>
+        <v>1.6590000000000001E-2</v>
       </c>
       <c r="L594" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M594" s="1" t="s">
-        <v>1393</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="595" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -29481,31 +29487,31 @@
         <v>1255</v>
       </c>
       <c r="E595" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F595" s="1" t="s">
-        <v>1359</v>
+        <v>1314</v>
       </c>
       <c r="G595" s="1" t="s">
-        <v>1360</v>
+        <v>1315</v>
       </c>
       <c r="H595" s="3">
         <v>0</v>
       </c>
       <c r="I595" s="2" t="s">
-        <v>1311</v>
+        <v>366</v>
       </c>
       <c r="J595" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K595" s="4">
-        <v>1.6590000000000001E-2</v>
+        <v>8.2950000000000003E-3</v>
       </c>
       <c r="L595" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M595" s="1" t="s">
-        <v>1393</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="596" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -29522,13 +29528,13 @@
         <v>1255</v>
       </c>
       <c r="E596" s="1" t="s">
-        <v>69</v>
+        <v>240</v>
       </c>
       <c r="F596" s="1" t="s">
-        <v>1044</v>
+        <v>1366</v>
       </c>
       <c r="G596" s="1" t="s">
-        <v>1041</v>
+        <v>1368</v>
       </c>
       <c r="H596" s="3">
         <v>0</v>
@@ -29546,7 +29552,7 @@
         <v>21</v>
       </c>
       <c r="M596" s="1" t="s">
-        <v>1393</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="597" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -29563,31 +29569,31 @@
         <v>1255</v>
       </c>
       <c r="E597" s="1" t="s">
-        <v>71</v>
+        <v>243</v>
       </c>
       <c r="F597" s="1" t="s">
-        <v>1362</v>
+        <v>1400</v>
       </c>
       <c r="G597" s="1" t="s">
-        <v>1363</v>
+        <v>1401</v>
       </c>
       <c r="H597" s="3">
         <v>0</v>
       </c>
       <c r="I597" s="2" t="s">
-        <v>1311</v>
+        <v>366</v>
       </c>
       <c r="J597" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K597" s="4">
-        <v>1.6590000000000001E-2</v>
+        <v>8.2950000000000003E-3</v>
       </c>
       <c r="L597" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M597" s="1" t="s">
-        <v>1393</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="598" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -29604,31 +29610,31 @@
         <v>1255</v>
       </c>
       <c r="E598" s="1" t="s">
-        <v>73</v>
+        <v>246</v>
       </c>
       <c r="F598" s="1" t="s">
-        <v>1364</v>
+        <v>1370</v>
       </c>
       <c r="G598" s="1" t="s">
-        <v>1397</v>
+        <v>1371</v>
       </c>
       <c r="H598" s="3">
         <v>0</v>
       </c>
       <c r="I598" s="2" t="s">
-        <v>1311</v>
+        <v>1338</v>
       </c>
       <c r="J598" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K598" s="4">
-        <v>1.6590000000000001E-2</v>
+        <v>1.2442E-2</v>
       </c>
       <c r="L598" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M598" s="1" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="599" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -29645,31 +29651,31 @@
         <v>1255</v>
       </c>
       <c r="E599" s="1" t="s">
-        <v>74</v>
+        <v>250</v>
       </c>
       <c r="F599" s="1" t="s">
-        <v>1314</v>
+        <v>1372</v>
       </c>
       <c r="G599" s="1" t="s">
-        <v>1315</v>
+        <v>1373</v>
       </c>
       <c r="H599" s="3">
         <v>0</v>
       </c>
       <c r="I599" s="2" t="s">
-        <v>366</v>
+        <v>1338</v>
       </c>
       <c r="J599" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K599" s="4">
-        <v>8.2950000000000003E-3</v>
+        <v>1.2442E-2</v>
       </c>
       <c r="L599" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M599" s="1" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="600" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -29686,13 +29692,13 @@
         <v>1255</v>
       </c>
       <c r="E600" s="1" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="F600" s="1" t="s">
-        <v>1366</v>
+        <v>1374</v>
       </c>
       <c r="G600" s="1" t="s">
-        <v>1368</v>
+        <v>1375</v>
       </c>
       <c r="H600" s="3">
         <v>0</v>
@@ -29710,7 +29716,7 @@
         <v>21</v>
       </c>
       <c r="M600" s="1" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="601" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -29727,31 +29733,31 @@
         <v>1255</v>
       </c>
       <c r="E601" s="1" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="F601" s="1" t="s">
+        <v>1376</v>
+      </c>
+      <c r="G601" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="H601" s="3">
+        <v>0</v>
+      </c>
+      <c r="I601" s="2" t="s">
+        <v>1342</v>
+      </c>
+      <c r="J601" s="3">
+        <v>4</v>
+      </c>
+      <c r="K601" s="4">
+        <v>1.6590000000000001E-2</v>
+      </c>
+      <c r="L601" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M601" s="1" t="s">
         <v>1399</v>
-      </c>
-      <c r="G601" s="1" t="s">
-        <v>1400</v>
-      </c>
-      <c r="H601" s="3">
-        <v>0</v>
-      </c>
-      <c r="I601" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="J601" s="3">
-        <v>2</v>
-      </c>
-      <c r="K601" s="4">
-        <v>8.2950000000000003E-3</v>
-      </c>
-      <c r="L601" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M601" s="1" t="s">
-        <v>1398</v>
       </c>
     </row>
     <row r="602" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -29768,31 +29774,31 @@
         <v>1255</v>
       </c>
       <c r="E602" s="1" t="s">
-        <v>246</v>
+        <v>80</v>
       </c>
       <c r="F602" s="1" t="s">
-        <v>1370</v>
+        <v>984</v>
       </c>
       <c r="G602" s="1" t="s">
-        <v>1371</v>
+        <v>1402</v>
       </c>
       <c r="H602" s="3">
         <v>0</v>
       </c>
       <c r="I602" s="2" t="s">
-        <v>1338</v>
+        <v>266</v>
       </c>
       <c r="J602" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K602" s="4">
-        <v>1.2442E-2</v>
+        <v>2.0736999999999998E-2</v>
       </c>
       <c r="L602" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M602" s="1" t="s">
-        <v>1398</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="603" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -29809,31 +29815,31 @@
         <v>1255</v>
       </c>
       <c r="E603" s="1" t="s">
-        <v>250</v>
+        <v>1298</v>
       </c>
       <c r="F603" s="1" t="s">
-        <v>1372</v>
+        <v>984</v>
       </c>
       <c r="G603" s="1" t="s">
-        <v>1373</v>
+        <v>1402</v>
       </c>
       <c r="H603" s="3">
         <v>0</v>
       </c>
       <c r="I603" s="2" t="s">
-        <v>1338</v>
+        <v>266</v>
       </c>
       <c r="J603" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K603" s="4">
-        <v>1.2442E-2</v>
+        <v>2.0736999999999998E-2</v>
       </c>
       <c r="L603" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M603" s="1" t="s">
-        <v>1398</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="604" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -29850,31 +29856,31 @@
         <v>1255</v>
       </c>
       <c r="E604" s="1" t="s">
-        <v>253</v>
+        <v>1302</v>
       </c>
       <c r="F604" s="1" t="s">
-        <v>1374</v>
+        <v>984</v>
       </c>
       <c r="G604" s="1" t="s">
-        <v>1375</v>
+        <v>1402</v>
       </c>
       <c r="H604" s="3">
         <v>0</v>
       </c>
       <c r="I604" s="2" t="s">
-        <v>1311</v>
+        <v>266</v>
       </c>
       <c r="J604" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K604" s="4">
-        <v>1.6590000000000001E-2</v>
+        <v>2.0736999999999998E-2</v>
       </c>
       <c r="L604" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M604" s="1" t="s">
-        <v>1398</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="605" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -29891,31 +29897,31 @@
         <v>1255</v>
       </c>
       <c r="E605" s="1" t="s">
-        <v>254</v>
+        <v>1306</v>
       </c>
       <c r="F605" s="1" t="s">
-        <v>1376</v>
+        <v>984</v>
       </c>
       <c r="G605" s="1" t="s">
-        <v>1377</v>
+        <v>1402</v>
       </c>
       <c r="H605" s="3">
         <v>0</v>
       </c>
       <c r="I605" s="2" t="s">
-        <v>1342</v>
+        <v>266</v>
       </c>
       <c r="J605" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K605" s="4">
-        <v>1.6590000000000001E-2</v>
+        <v>2.0736999999999998E-2</v>
       </c>
       <c r="L605" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M605" s="1" t="s">
-        <v>1398</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="606" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -29932,19 +29938,19 @@
         <v>1255</v>
       </c>
       <c r="E606" s="1" t="s">
-        <v>80</v>
+        <v>373</v>
       </c>
       <c r="F606" s="1" t="s">
-        <v>984</v>
+        <v>1404</v>
       </c>
       <c r="G606" s="1" t="s">
-        <v>1401</v>
+        <v>1405</v>
       </c>
       <c r="H606" s="3">
         <v>0</v>
       </c>
       <c r="I606" s="2" t="s">
-        <v>266</v>
+        <v>1406</v>
       </c>
       <c r="J606" s="3">
         <v>5</v>
@@ -29956,7 +29962,7 @@
         <v>21</v>
       </c>
       <c r="M606" s="1" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="607" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -29976,16 +29982,16 @@
         <v>1298</v>
       </c>
       <c r="F607" s="1" t="s">
-        <v>984</v>
+        <v>1404</v>
       </c>
       <c r="G607" s="1" t="s">
-        <v>1401</v>
+        <v>1405</v>
       </c>
       <c r="H607" s="3">
         <v>0</v>
       </c>
       <c r="I607" s="2" t="s">
-        <v>266</v>
+        <v>1406</v>
       </c>
       <c r="J607" s="3">
         <v>5</v>
@@ -29997,7 +30003,7 @@
         <v>21</v>
       </c>
       <c r="M607" s="1" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="608" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -30014,19 +30020,19 @@
         <v>1255</v>
       </c>
       <c r="E608" s="1" t="s">
-        <v>1302</v>
+        <v>373</v>
       </c>
       <c r="F608" s="1" t="s">
-        <v>984</v>
+        <v>1407</v>
       </c>
       <c r="G608" s="1" t="s">
-        <v>1401</v>
+        <v>1408</v>
       </c>
       <c r="H608" s="3">
         <v>0</v>
       </c>
       <c r="I608" s="2" t="s">
-        <v>266</v>
+        <v>1409</v>
       </c>
       <c r="J608" s="3">
         <v>5</v>
@@ -30038,7 +30044,7 @@
         <v>21</v>
       </c>
       <c r="M608" s="1" t="s">
-        <v>1402</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="609" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -30058,16 +30064,16 @@
         <v>1306</v>
       </c>
       <c r="F609" s="1" t="s">
-        <v>984</v>
+        <v>1407</v>
       </c>
       <c r="G609" s="1" t="s">
-        <v>1401</v>
+        <v>1408</v>
       </c>
       <c r="H609" s="3">
         <v>0</v>
       </c>
       <c r="I609" s="2" t="s">
-        <v>266</v>
+        <v>1409</v>
       </c>
       <c r="J609" s="3">
         <v>5</v>
@@ -30079,7 +30085,7 @@
         <v>21</v>
       </c>
       <c r="M609" s="1" t="s">
-        <v>1402</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="610" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -30096,19 +30102,19 @@
         <v>1255</v>
       </c>
       <c r="E610" s="1" t="s">
-        <v>373</v>
+        <v>85</v>
       </c>
       <c r="F610" s="1" t="s">
-        <v>1403</v>
+        <v>1411</v>
       </c>
       <c r="G610" s="1" t="s">
-        <v>1404</v>
+        <v>1412</v>
       </c>
       <c r="H610" s="3">
         <v>0</v>
       </c>
       <c r="I610" s="2" t="s">
-        <v>1405</v>
+        <v>1413</v>
       </c>
       <c r="J610" s="3">
         <v>5</v>
@@ -30120,7 +30126,7 @@
         <v>21</v>
       </c>
       <c r="M610" s="1" t="s">
-        <v>1402</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="611" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -30137,31 +30143,31 @@
         <v>1255</v>
       </c>
       <c r="E611" s="1" t="s">
-        <v>1298</v>
+        <v>278</v>
       </c>
       <c r="F611" s="1" t="s">
-        <v>1403</v>
+        <v>1415</v>
       </c>
       <c r="G611" s="1" t="s">
-        <v>1404</v>
+        <v>1416</v>
       </c>
       <c r="H611" s="3">
         <v>0</v>
       </c>
       <c r="I611" s="2" t="s">
-        <v>1405</v>
+        <v>1417</v>
       </c>
       <c r="J611" s="3">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="K611" s="4">
-        <v>2.0736999999999998E-2</v>
+        <v>7.0507E-2</v>
       </c>
       <c r="L611" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M611" s="1" t="s">
-        <v>1402</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="612" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -30178,31 +30184,31 @@
         <v>1255</v>
       </c>
       <c r="E612" s="1" t="s">
-        <v>373</v>
+        <v>102</v>
       </c>
       <c r="F612" s="1" t="s">
-        <v>1406</v>
+        <v>1418</v>
       </c>
       <c r="G612" s="1" t="s">
-        <v>1407</v>
+        <v>313</v>
       </c>
       <c r="H612" s="3">
         <v>0</v>
       </c>
       <c r="I612" s="2" t="s">
-        <v>1408</v>
+        <v>1419</v>
       </c>
       <c r="J612" s="3">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K612" s="4">
-        <v>2.0736999999999998E-2</v>
+        <v>4.5622000000000003E-2</v>
       </c>
       <c r="L612" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M612" s="1" t="s">
-        <v>1409</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="613" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -30219,34 +30225,34 @@
         <v>1255</v>
       </c>
       <c r="E613" s="1" t="s">
-        <v>1306</v>
+        <v>106</v>
       </c>
       <c r="F613" s="1" t="s">
-        <v>1406</v>
+        <v>1420</v>
       </c>
       <c r="G613" s="1" t="s">
-        <v>1407</v>
+        <v>1421</v>
       </c>
       <c r="H613" s="3">
         <v>0</v>
       </c>
       <c r="I613" s="2" t="s">
-        <v>1408</v>
+        <v>392</v>
       </c>
       <c r="J613" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K613" s="4">
-        <v>2.0736999999999998E-2</v>
+        <v>1.6590000000000001E-2</v>
       </c>
       <c r="L613" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M613" s="1" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="614" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="614" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A614" s="6" t="s">
         <v>13</v>
       </c>
@@ -30260,31 +30266,31 @@
         <v>1255</v>
       </c>
       <c r="E614" s="1" t="s">
-        <v>85</v>
+        <v>288</v>
       </c>
       <c r="F614" s="1" t="s">
-        <v>1410</v>
+        <v>1422</v>
       </c>
       <c r="G614" s="1" t="s">
-        <v>1411</v>
+        <v>1423</v>
       </c>
       <c r="H614" s="3">
         <v>0</v>
       </c>
       <c r="I614" s="2" t="s">
-        <v>1412</v>
+        <v>1424</v>
       </c>
       <c r="J614" s="3">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="K614" s="4">
-        <v>2.0736999999999998E-2</v>
+        <v>0.12442499999999999</v>
       </c>
       <c r="L614" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M614" s="1" t="s">
-        <v>1413</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="615" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -30301,31 +30307,31 @@
         <v>1255</v>
       </c>
       <c r="E615" s="1" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="F615" s="1" t="s">
-        <v>1414</v>
+        <v>1426</v>
       </c>
       <c r="G615" s="1" t="s">
-        <v>1415</v>
+        <v>1427</v>
       </c>
       <c r="H615" s="3">
         <v>0</v>
       </c>
       <c r="I615" s="2" t="s">
-        <v>1416</v>
+        <v>301</v>
       </c>
       <c r="J615" s="3">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="K615" s="4">
-        <v>7.0507E-2</v>
+        <v>2.0736999999999998E-2</v>
       </c>
       <c r="L615" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M615" s="1" t="s">
-        <v>1413</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="616" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -30342,31 +30348,31 @@
         <v>1255</v>
       </c>
       <c r="E616" s="1" t="s">
-        <v>102</v>
+        <v>288</v>
       </c>
       <c r="F616" s="1" t="s">
-        <v>1417</v>
+        <v>1428</v>
       </c>
       <c r="G616" s="1" t="s">
-        <v>313</v>
+        <v>1429</v>
       </c>
       <c r="H616" s="3">
         <v>0</v>
       </c>
       <c r="I616" s="2" t="s">
-        <v>1418</v>
+        <v>1430</v>
       </c>
       <c r="J616" s="3">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K616" s="4">
-        <v>4.5622000000000003E-2</v>
+        <v>6.6360000000000002E-2</v>
       </c>
       <c r="L616" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M616" s="1" t="s">
-        <v>1413</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="617" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -30383,31 +30389,31 @@
         <v>1255</v>
       </c>
       <c r="E617" s="1" t="s">
-        <v>106</v>
+        <v>288</v>
       </c>
       <c r="F617" s="1" t="s">
-        <v>1419</v>
+        <v>1431</v>
       </c>
       <c r="G617" s="1" t="s">
-        <v>1420</v>
+        <v>1432</v>
       </c>
       <c r="H617" s="3">
         <v>0</v>
       </c>
       <c r="I617" s="2" t="s">
-        <v>392</v>
+        <v>1433</v>
       </c>
       <c r="J617" s="3">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="K617" s="4">
-        <v>1.6590000000000001E-2</v>
+        <v>0.120277</v>
       </c>
       <c r="L617" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M617" s="1" t="s">
-        <v>1413</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="618" spans="1:13" ht="30" x14ac:dyDescent="0.2">
@@ -30424,31 +30430,31 @@
         <v>1255</v>
       </c>
       <c r="E618" s="1" t="s">
-        <v>288</v>
+        <v>117</v>
       </c>
       <c r="F618" s="1" t="s">
-        <v>1421</v>
+        <v>1434</v>
       </c>
       <c r="G618" s="1" t="s">
-        <v>1422</v>
+        <v>1435</v>
       </c>
       <c r="H618" s="3">
         <v>0</v>
       </c>
       <c r="I618" s="2" t="s">
-        <v>1423</v>
+        <v>1436</v>
       </c>
       <c r="J618" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K618" s="4">
-        <v>0.12442499999999999</v>
+        <v>0.12857199999999999</v>
       </c>
       <c r="L618" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M618" s="1" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="619" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -30462,34 +30468,34 @@
         <v>15</v>
       </c>
       <c r="D619" s="2" t="s">
-        <v>1255</v>
+        <v>977</v>
       </c>
       <c r="E619" s="1" t="s">
-        <v>288</v>
+        <v>89</v>
       </c>
       <c r="F619" s="1" t="s">
-        <v>1425</v>
+        <v>1437</v>
       </c>
       <c r="G619" s="1" t="s">
-        <v>1426</v>
+        <v>1438</v>
       </c>
       <c r="H619" s="3">
         <v>0</v>
       </c>
       <c r="I619" s="2" t="s">
-        <v>301</v>
+        <v>1439</v>
       </c>
       <c r="J619" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K619" s="4">
-        <v>2.0736999999999998E-2</v>
+        <v>2.8688999999999999E-2</v>
       </c>
       <c r="L619" s="1" t="s">
-        <v>21</v>
+        <v>1440</v>
       </c>
       <c r="M619" s="1" t="s">
-        <v>1424</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="620" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -30503,34 +30509,34 @@
         <v>15</v>
       </c>
       <c r="D620" s="2" t="s">
-        <v>1255</v>
+        <v>977</v>
       </c>
       <c r="E620" s="1" t="s">
-        <v>288</v>
+        <v>85</v>
       </c>
       <c r="F620" s="1" t="s">
-        <v>1427</v>
+        <v>1442</v>
       </c>
       <c r="G620" s="1" t="s">
-        <v>1428</v>
+        <v>1443</v>
       </c>
       <c r="H620" s="3">
         <v>0</v>
       </c>
       <c r="I620" s="2" t="s">
-        <v>1429</v>
+        <v>1444</v>
       </c>
       <c r="J620" s="3">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="K620" s="4">
-        <v>6.6360000000000002E-2</v>
+        <v>2.0492E-2</v>
       </c>
       <c r="L620" s="1" t="s">
-        <v>21</v>
+        <v>1440</v>
       </c>
       <c r="M620" s="1" t="s">
-        <v>1424</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="621" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -30544,37 +30550,37 @@
         <v>15</v>
       </c>
       <c r="D621" s="2" t="s">
-        <v>1255</v>
+        <v>977</v>
       </c>
       <c r="E621" s="1" t="s">
-        <v>288</v>
+        <v>102</v>
       </c>
       <c r="F621" s="1" t="s">
-        <v>1430</v>
+        <v>1445</v>
       </c>
       <c r="G621" s="1" t="s">
-        <v>1431</v>
+        <v>1446</v>
       </c>
       <c r="H621" s="3">
         <v>0</v>
       </c>
       <c r="I621" s="2" t="s">
-        <v>1432</v>
+        <v>1447</v>
       </c>
       <c r="J621" s="3">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="K621" s="4">
-        <v>0.120277</v>
+        <v>3.2786999999999997E-2</v>
       </c>
       <c r="L621" s="1" t="s">
-        <v>21</v>
+        <v>1440</v>
       </c>
       <c r="M621" s="1" t="s">
-        <v>1424</v>
-      </c>
-    </row>
-    <row r="622" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="622" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A622" s="6" t="s">
         <v>13</v>
       </c>
@@ -30585,34 +30591,34 @@
         <v>15</v>
       </c>
       <c r="D622" s="2" t="s">
-        <v>1255</v>
+        <v>977</v>
       </c>
       <c r="E622" s="1" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="F622" s="1" t="s">
-        <v>1433</v>
+        <v>1449</v>
       </c>
       <c r="G622" s="1" t="s">
-        <v>1434</v>
+        <v>1450</v>
       </c>
       <c r="H622" s="3">
         <v>0</v>
       </c>
       <c r="I622" s="2" t="s">
-        <v>1435</v>
+        <v>1451</v>
       </c>
       <c r="J622" s="3">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="K622" s="4">
-        <v>0.12857199999999999</v>
+        <v>1.6393000000000001E-2</v>
       </c>
       <c r="L622" s="1" t="s">
-        <v>21</v>
+        <v>1440</v>
       </c>
       <c r="M622" s="1" t="s">
-        <v>1424</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="623" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -30629,31 +30635,31 @@
         <v>977</v>
       </c>
       <c r="E623" s="1" t="s">
-        <v>89</v>
+        <v>798</v>
       </c>
       <c r="F623" s="1" t="s">
-        <v>1436</v>
+        <v>1452</v>
       </c>
       <c r="G623" s="1" t="s">
-        <v>1437</v>
+        <v>1453</v>
       </c>
       <c r="H623" s="3">
         <v>0</v>
       </c>
       <c r="I623" s="2" t="s">
-        <v>1438</v>
+        <v>1454</v>
       </c>
       <c r="J623" s="3">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="K623" s="4">
-        <v>2.8688999999999999E-2</v>
+        <v>6.1475000000000002E-2</v>
       </c>
       <c r="L623" s="1" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="M623" s="1" t="s">
-        <v>1440</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="624" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -30670,31 +30676,31 @@
         <v>977</v>
       </c>
       <c r="E624" s="1" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="F624" s="1" t="s">
-        <v>1441</v>
+        <v>1456</v>
       </c>
       <c r="G624" s="1" t="s">
-        <v>1442</v>
+        <v>1457</v>
       </c>
       <c r="H624" s="3">
         <v>0</v>
       </c>
       <c r="I624" s="2" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="J624" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K624" s="4">
-        <v>2.0492E-2</v>
+        <v>8.1969999999999994E-3</v>
       </c>
       <c r="L624" s="1" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="M624" s="1" t="s">
-        <v>1440</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="625" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -30711,31 +30717,31 @@
         <v>977</v>
       </c>
       <c r="E625" s="1" t="s">
-        <v>102</v>
+        <v>373</v>
       </c>
       <c r="F625" s="1" t="s">
-        <v>1444</v>
+        <v>1460</v>
       </c>
       <c r="G625" s="1" t="s">
-        <v>1445</v>
+        <v>1461</v>
       </c>
       <c r="H625" s="3">
         <v>0</v>
       </c>
       <c r="I625" s="2" t="s">
-        <v>1446</v>
+        <v>1462</v>
       </c>
       <c r="J625" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="K625" s="4">
-        <v>3.2786999999999997E-2</v>
+        <v>5.3279E-2</v>
       </c>
       <c r="L625" s="1" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="M625" s="1" t="s">
-        <v>1447</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="626" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -30752,31 +30758,31 @@
         <v>977</v>
       </c>
       <c r="E626" s="1" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="F626" s="1" t="s">
-        <v>1448</v>
+        <v>1464</v>
       </c>
       <c r="G626" s="1" t="s">
-        <v>1449</v>
+        <v>1465</v>
       </c>
       <c r="H626" s="3">
         <v>0</v>
       </c>
       <c r="I626" s="2" t="s">
-        <v>1450</v>
+        <v>1014</v>
       </c>
       <c r="J626" s="3">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="K626" s="4">
-        <v>1.6393000000000001E-2</v>
+        <v>4.9180000000000001E-2</v>
       </c>
       <c r="L626" s="1" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="M626" s="1" t="s">
-        <v>1447</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="627" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -30790,34 +30796,34 @@
         <v>15</v>
       </c>
       <c r="D627" s="2" t="s">
-        <v>977</v>
+        <v>1255</v>
       </c>
       <c r="E627" s="1" t="s">
-        <v>798</v>
+        <v>93</v>
       </c>
       <c r="F627" s="1" t="s">
-        <v>1451</v>
+        <v>1467</v>
       </c>
       <c r="G627" s="1" t="s">
-        <v>1452</v>
+        <v>1468</v>
       </c>
       <c r="H627" s="3">
         <v>0</v>
       </c>
       <c r="I627" s="2" t="s">
-        <v>1453</v>
+        <v>1469</v>
       </c>
       <c r="J627" s="3">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="K627" s="4">
-        <v>6.1475000000000002E-2</v>
+        <v>2.9031999999999999E-2</v>
       </c>
       <c r="L627" s="1" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="M627" s="1" t="s">
-        <v>1454</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="628" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -30834,31 +30840,31 @@
         <v>977</v>
       </c>
       <c r="E628" s="1" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="F628" s="1" t="s">
-        <v>1455</v>
+        <v>1471</v>
       </c>
       <c r="G628" s="1" t="s">
-        <v>1456</v>
+        <v>1472</v>
       </c>
       <c r="H628" s="3">
         <v>0</v>
       </c>
       <c r="I628" s="2" t="s">
-        <v>1457</v>
+        <v>568</v>
       </c>
       <c r="J628" s="3">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="K628" s="4">
-        <v>8.1969999999999994E-3</v>
+        <v>8.6066000000000004E-2</v>
       </c>
       <c r="L628" s="1" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="M628" s="1" t="s">
-        <v>1458</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="629" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -30872,157 +30878,34 @@
         <v>15</v>
       </c>
       <c r="D629" s="2" t="s">
-        <v>977</v>
+        <v>1157</v>
       </c>
       <c r="E629" s="1" t="s">
-        <v>373</v>
+        <v>54</v>
       </c>
       <c r="F629" s="1" t="s">
-        <v>1459</v>
+        <v>1233</v>
       </c>
       <c r="G629" s="1" t="s">
-        <v>1460</v>
+        <v>1234</v>
       </c>
       <c r="H629" s="3">
         <v>0</v>
       </c>
       <c r="I629" s="2" t="s">
-        <v>1461</v>
+        <v>1235</v>
       </c>
       <c r="J629" s="3">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="K629" s="4">
-        <v>5.3279E-2</v>
+        <v>9.101389478793763E-3</v>
       </c>
       <c r="L629" s="1" t="s">
-        <v>1439</v>
+        <v>1216</v>
       </c>
       <c r="M629" s="1" t="s">
-        <v>1462</v>
-      </c>
-    </row>
-    <row r="630" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A630" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B630" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C630" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D630" s="2" t="s">
-        <v>977</v>
-      </c>
-      <c r="E630" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F630" s="1" t="s">
-        <v>1463</v>
-      </c>
-      <c r="G630" s="1" t="s">
-        <v>1464</v>
-      </c>
-      <c r="H630" s="3">
-        <v>0</v>
-      </c>
-      <c r="I630" s="2" t="s">
-        <v>1014</v>
-      </c>
-      <c r="J630" s="3">
-        <v>12</v>
-      </c>
-      <c r="K630" s="4">
-        <v>4.9180000000000001E-2</v>
-      </c>
-      <c r="L630" s="1" t="s">
-        <v>1439</v>
-      </c>
-      <c r="M630" s="1" t="s">
-        <v>1465</v>
-      </c>
-    </row>
-    <row r="631" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A631" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B631" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C631" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D631" s="2" t="s">
-        <v>1255</v>
-      </c>
-      <c r="E631" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F631" s="1" t="s">
-        <v>1466</v>
-      </c>
-      <c r="G631" s="1" t="s">
-        <v>1467</v>
-      </c>
-      <c r="H631" s="3">
-        <v>0</v>
-      </c>
-      <c r="I631" s="2" t="s">
-        <v>1468</v>
-      </c>
-      <c r="J631" s="3">
-        <v>7</v>
-      </c>
-      <c r="K631" s="4">
-        <v>2.9031999999999999E-2</v>
-      </c>
-      <c r="L631" s="1" t="s">
-        <v>1439</v>
-      </c>
-      <c r="M631" s="1" t="s">
-        <v>1469</v>
-      </c>
-    </row>
-    <row r="632" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A632" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B632" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C632" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D632" s="2" t="s">
-        <v>977</v>
-      </c>
-      <c r="E632" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F632" s="1" t="s">
-        <v>1470</v>
-      </c>
-      <c r="G632" s="1" t="s">
-        <v>1471</v>
-      </c>
-      <c r="H632" s="3">
-        <v>0</v>
-      </c>
-      <c r="I632" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="J632" s="3">
-        <v>21</v>
-      </c>
-      <c r="K632" s="4">
-        <v>8.6066000000000004E-2</v>
-      </c>
-      <c r="L632" s="1" t="s">
-        <v>1439</v>
-      </c>
-      <c r="M632" s="1" t="s">
-        <v>1472</v>
+        <v>1474</v>
       </c>
     </row>
   </sheetData>
